--- a/heathrowflow.xlsx
+++ b/heathrowflow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H363"/>
+  <dimension ref="A1:L363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,26 @@
           <t>lng</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Car Distance [m]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Car Time Taken [s]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Transit Distance [m]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Transit Time Taken [s]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +517,18 @@
       <c r="H2" t="n">
         <v>-2.0937528</v>
       </c>
+      <c r="I2" t="n">
+        <v>857680</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31637</v>
+      </c>
+      <c r="K2" t="n">
+        <v>872625</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31242</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -525,6 +557,18 @@
       <c r="H3" t="n">
         <v>-2.3815684</v>
       </c>
+      <c r="I3" t="n">
+        <v>879463</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32439</v>
+      </c>
+      <c r="K3" t="n">
+        <v>900775</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32152</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -553,6 +597,18 @@
       <c r="H4" t="n">
         <v>-0.3101263</v>
       </c>
+      <c r="I4" t="n">
+        <v>109867</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4306</v>
+      </c>
+      <c r="K4" t="n">
+        <v>123156</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9889</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,6 +637,18 @@
       <c r="H5" t="n">
         <v>-3.1994197</v>
       </c>
+      <c r="I5" t="n">
+        <v>499215</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18571</v>
+      </c>
+      <c r="K5" t="n">
+        <v>532077</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26474</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +677,18 @@
       <c r="H6" t="n">
         <v>-1.4823067</v>
       </c>
+      <c r="I6" t="n">
+        <v>217494</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8816</v>
+      </c>
+      <c r="K6" t="n">
+        <v>251567</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13219</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +717,18 @@
       <c r="H7" t="n">
         <v>-2.9124057</v>
       </c>
+      <c r="I7" t="n">
+        <v>784429</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28784</v>
+      </c>
+      <c r="K7" t="n">
+        <v>796945</v>
+      </c>
+      <c r="L7" t="n">
+        <v>72221</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,6 +757,18 @@
       <c r="H8" t="n">
         <v>-5.480748</v>
       </c>
+      <c r="I8" t="n">
+        <v>796125</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30893</v>
+      </c>
+      <c r="K8" t="n">
+        <v>811216</v>
+      </c>
+      <c r="L8" t="n">
+        <v>38417</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,6 +797,18 @@
       <c r="H9" t="n">
         <v>-0.5756878999999999</v>
       </c>
+      <c r="I9" t="n">
+        <v>90644</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4958</v>
+      </c>
+      <c r="K9" t="n">
+        <v>115721</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10326</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -721,6 +837,18 @@
       <c r="H10" t="n">
         <v>-1.2697006</v>
       </c>
+      <c r="I10" t="n">
+        <v>220630</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8600</v>
+      </c>
+      <c r="K10" t="n">
+        <v>274314</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14482</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,6 +877,18 @@
       <c r="H11" t="n">
         <v>0.8739631</v>
       </c>
+      <c r="I11" t="n">
+        <v>127161</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5058</v>
+      </c>
+      <c r="K11" t="n">
+        <v>121330</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6607</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,6 +917,18 @@
       <c r="H12" t="n">
         <v>-0.8194542</v>
       </c>
+      <c r="I12" t="n">
+        <v>63173</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2804</v>
+      </c>
+      <c r="K12" t="n">
+        <v>90699</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +957,18 @@
       <c r="H13" t="n">
         <v>0.9175876999999999</v>
       </c>
+      <c r="I13" t="n">
+        <v>166505</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7516</v>
+      </c>
+      <c r="K13" t="n">
+        <v>190001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15030</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -833,6 +997,18 @@
       <c r="H14" t="n">
         <v>0.134017</v>
       </c>
+      <c r="I14" t="n">
+        <v>98778</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4273</v>
+      </c>
+      <c r="K14" t="n">
+        <v>51973</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5672</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,6 +1037,18 @@
       <c r="H15" t="n">
         <v>-0.1949252</v>
       </c>
+      <c r="I15" t="n">
+        <v>51989</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2227</v>
+      </c>
+      <c r="K15" t="n">
+        <v>48217</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6222</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -889,6 +1077,18 @@
       <c r="H16" t="n">
         <v>-1.479726</v>
       </c>
+      <c r="I16" t="n">
+        <v>282690</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11042</v>
+      </c>
+      <c r="K16" t="n">
+        <v>322176</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14262</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,6 +1117,18 @@
       <c r="H17" t="n">
         <v>-3.218894</v>
       </c>
+      <c r="I17" t="n">
+        <v>458494</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17569</v>
+      </c>
+      <c r="K17" t="n">
+        <v>457350</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18847</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,6 +1157,18 @@
       <c r="H18" t="n">
         <v>0.488736</v>
       </c>
+      <c r="I18" t="n">
+        <v>105815</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4358</v>
+      </c>
+      <c r="K18" t="n">
+        <v>70721</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5887</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,6 +1197,18 @@
       <c r="H19" t="n">
         <v>-1.1782681</v>
       </c>
+      <c r="I19" t="n">
+        <v>61409</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2395</v>
+      </c>
+      <c r="K19" t="n">
+        <v>65119</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7989</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1001,6 +1237,18 @@
       <c r="H20" t="n">
         <v>-0.9398502999999999</v>
       </c>
+      <c r="I20" t="n">
+        <v>245736</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9753</v>
+      </c>
+      <c r="K20" t="n">
+        <v>257543</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10249</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1029,6 +1277,18 @@
       <c r="H21" t="n">
         <v>-2.4766241</v>
       </c>
+      <c r="I21" t="n">
+        <v>171551</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7195</v>
+      </c>
+      <c r="K21" t="n">
+        <v>172393</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12772</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1057,6 +1317,18 @@
       <c r="H22" t="n">
         <v>-0.4667687</v>
       </c>
+      <c r="I22" t="n">
+        <v>92027</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4182</v>
+      </c>
+      <c r="K22" t="n">
+        <v>114087</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7027</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1085,6 +1357,18 @@
       <c r="H23" t="n">
         <v>0.154327</v>
       </c>
+      <c r="I23" t="n">
+        <v>92273</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3711</v>
+      </c>
+      <c r="K23" t="n">
+        <v>53471</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5707</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1113,6 +1397,18 @@
       <c r="H24" t="n">
         <v>-1.8900078</v>
       </c>
+      <c r="I24" t="n">
+        <v>184066</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6894</v>
+      </c>
+      <c r="K24" t="n">
+        <v>193507</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9875</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1437,18 @@
       <c r="H25" t="n">
         <v>-1.1656497</v>
       </c>
+      <c r="I25" t="n">
+        <v>154505</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6318</v>
+      </c>
+      <c r="K25" t="n">
+        <v>199004</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11674</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1169,6 +1477,18 @@
       <c r="H26" t="n">
         <v>-2.4682985</v>
       </c>
+      <c r="I26" t="n">
+        <v>356700</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13211</v>
+      </c>
+      <c r="K26" t="n">
+        <v>360985</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15298</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1197,6 +1517,18 @@
       <c r="H27" t="n">
         <v>-3.0370485</v>
       </c>
+      <c r="I27" t="n">
+        <v>379010</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14073</v>
+      </c>
+      <c r="K27" t="n">
+        <v>395456</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14442</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1225,6 +1557,18 @@
       <c r="H28" t="n">
         <v>-3.2043931</v>
       </c>
+      <c r="I28" t="n">
+        <v>230719</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9185</v>
+      </c>
+      <c r="K28" t="n">
+        <v>226234</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12955</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1253,6 +1597,18 @@
       <c r="H29" t="n">
         <v>-1.2897209</v>
       </c>
+      <c r="I29" t="n">
+        <v>236839</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9190</v>
+      </c>
+      <c r="K29" t="n">
+        <v>294396</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15222</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1281,6 +1637,18 @@
       <c r="H30" t="n">
         <v>-2.4282192</v>
       </c>
+      <c r="I30" t="n">
+        <v>332529</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12316</v>
+      </c>
+      <c r="K30" t="n">
+        <v>353339</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13327</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1309,6 +1677,18 @@
       <c r="H31" t="n">
         <v>-0.026577</v>
       </c>
+      <c r="I31" t="n">
+        <v>200209</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8993</v>
+      </c>
+      <c r="K31" t="n">
+        <v>212343</v>
+      </c>
+      <c r="L31" t="n">
+        <v>14767</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1337,6 +1717,18 @@
       <c r="H32" t="n">
         <v>-1.9883161</v>
       </c>
+      <c r="I32" t="n">
+        <v>146885</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K32" t="n">
+        <v>156892</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10100</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1365,6 +1757,18 @@
       <c r="H33" t="n">
         <v>-0.7536495</v>
       </c>
+      <c r="I33" t="n">
+        <v>31107</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1591</v>
+      </c>
+      <c r="K33" t="n">
+        <v>29697</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3586</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1393,6 +1797,18 @@
       <c r="H34" t="n">
         <v>-1.7563583</v>
       </c>
+      <c r="I34" t="n">
+        <v>326710</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12824</v>
+      </c>
+      <c r="K34" t="n">
+        <v>345463</v>
+      </c>
+      <c r="L34" t="n">
+        <v>15042</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1421,6 +1837,18 @@
       <c r="H35" t="n">
         <v>0.5509269</v>
       </c>
+      <c r="I35" t="n">
+        <v>128159</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5012</v>
+      </c>
+      <c r="K35" t="n">
+        <v>106043</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7627</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1449,6 +1877,18 @@
       <c r="H36" t="n">
         <v>0.8354678</v>
       </c>
+      <c r="I36" t="n">
+        <v>202066</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7955</v>
+      </c>
+      <c r="K36" t="n">
+        <v>257728</v>
+      </c>
+      <c r="L36" t="n">
+        <v>16669</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1477,6 +1917,18 @@
       <c r="H37" t="n">
         <v>-0.2710568</v>
       </c>
+      <c r="I37" t="n">
+        <v>35433</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2112</v>
+      </c>
+      <c r="K37" t="n">
+        <v>41860</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4749</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1505,6 +1957,18 @@
       <c r="H38" t="n">
         <v>0.3071749</v>
       </c>
+      <c r="I38" t="n">
+        <v>89206</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3758</v>
+      </c>
+      <c r="K38" t="n">
+        <v>66015</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5107</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1533,6 +1997,18 @@
       <c r="H39" t="n">
         <v>-3.576945</v>
       </c>
+      <c r="I39" t="n">
+        <v>242409</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9163</v>
+      </c>
+      <c r="K39" t="n">
+        <v>242867</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10355</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1561,6 +2037,18 @@
       <c r="H40" t="n">
         <v>-0.137047</v>
       </c>
+      <c r="I40" t="n">
+        <v>101932</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4358</v>
+      </c>
+      <c r="K40" t="n">
+        <v>117213</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8632</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1589,6 +2077,18 @@
       <c r="H41" t="n">
         <v>-2.5926854</v>
       </c>
+      <c r="I41" t="n">
+        <v>166525</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6316</v>
+      </c>
+      <c r="K41" t="n">
+        <v>169603</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9468</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1617,6 +2117,18 @@
       <c r="H42" t="n">
         <v>1.2409416</v>
       </c>
+      <c r="I42" t="n">
+        <v>239940</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9704</v>
+      </c>
+      <c r="K42" t="n">
+        <v>234430</v>
+      </c>
+      <c r="L42" t="n">
+        <v>16112</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1645,6 +2157,18 @@
       <c r="H43" t="n">
         <v>0.0186804</v>
       </c>
+      <c r="I43" t="n">
+        <v>88526</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4095</v>
+      </c>
+      <c r="K43" t="n">
+        <v>44772</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5202</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1673,6 +2197,18 @@
       <c r="H44" t="n">
         <v>-2.061906</v>
       </c>
+      <c r="I44" t="n">
+        <v>168941</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6103</v>
+      </c>
+      <c r="K44" t="n">
+        <v>235887</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10987</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1701,6 +2237,18 @@
       <c r="H45" t="n">
         <v>-0.021151</v>
       </c>
+      <c r="I45" t="n">
+        <v>67857</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3054</v>
+      </c>
+      <c r="K45" t="n">
+        <v>61205</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6127</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1729,6 +2277,18 @@
       <c r="H46" t="n">
         <v>-1.264754</v>
       </c>
+      <c r="I46" t="n">
+        <v>209390</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8257</v>
+      </c>
+      <c r="K46" t="n">
+        <v>249536</v>
+      </c>
+      <c r="L46" t="n">
+        <v>14539</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1757,6 +2317,18 @@
       <c r="H47" t="n">
         <v>-2.2405035</v>
       </c>
+      <c r="I47" t="n">
+        <v>366033</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13788</v>
+      </c>
+      <c r="K47" t="n">
+        <v>404629</v>
+      </c>
+      <c r="L47" t="n">
+        <v>15882</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1785,6 +2357,18 @@
       <c r="H48" t="n">
         <v>-2.2966054</v>
       </c>
+      <c r="I48" t="n">
+        <v>335828</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12850</v>
+      </c>
+      <c r="K48" t="n">
+        <v>352556</v>
+      </c>
+      <c r="L48" t="n">
+        <v>14767</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1813,6 +2397,18 @@
       <c r="H49" t="n">
         <v>-3.218134</v>
       </c>
+      <c r="I49" t="n">
+        <v>225750</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8556</v>
+      </c>
+      <c r="K49" t="n">
+        <v>223239</v>
+      </c>
+      <c r="L49" t="n">
+        <v>11217</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1841,6 +2437,18 @@
       <c r="H50" t="n">
         <v>-1.8658357</v>
       </c>
+      <c r="I50" t="n">
+        <v>329819</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13083</v>
+      </c>
+      <c r="K50" t="n">
+        <v>362343</v>
+      </c>
+      <c r="L50" t="n">
+        <v>17246</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1869,6 +2477,18 @@
       <c r="H51" t="n">
         <v>0.1312729</v>
       </c>
+      <c r="I51" t="n">
+        <v>109008</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5192</v>
+      </c>
+      <c r="K51" t="n">
+        <v>127252</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6727</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1897,6 +2517,18 @@
       <c r="H52" t="n">
         <v>-0.1425516</v>
       </c>
+      <c r="I52" t="n">
+        <v>42003</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2972</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33003</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3298</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1925,6 +2557,18 @@
       <c r="H53" t="n">
         <v>-1.9858812</v>
       </c>
+      <c r="I53" t="n">
+        <v>204455</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7665</v>
+      </c>
+      <c r="K53" t="n">
+        <v>250105</v>
+      </c>
+      <c r="L53" t="n">
+        <v>13579</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1953,6 +2597,18 @@
       <c r="H54" t="n">
         <v>1.0789089</v>
       </c>
+      <c r="I54" t="n">
+        <v>138677</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5746</v>
+      </c>
+      <c r="K54" t="n">
+        <v>144081</v>
+      </c>
+      <c r="L54" t="n">
+        <v>7987</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1981,6 +2637,18 @@
       <c r="H55" t="n">
         <v>-3.1680962</v>
       </c>
+      <c r="I55" t="n">
+        <v>216250</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8439</v>
+      </c>
+      <c r="K55" t="n">
+        <v>210461</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9155</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2009,6 +2677,18 @@
       <c r="H56" t="n">
         <v>-2.932931</v>
       </c>
+      <c r="I56" t="n">
+        <v>490718</v>
+      </c>
+      <c r="J56" t="n">
+        <v>17882</v>
+      </c>
+      <c r="K56" t="n">
+        <v>512335</v>
+      </c>
+      <c r="L56" t="n">
+        <v>15427</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2037,6 +2717,18 @@
       <c r="H57" t="n">
         <v>-4.311595899999999</v>
       </c>
+      <c r="I57" t="n">
+        <v>317880</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11909</v>
+      </c>
+      <c r="K57" t="n">
+        <v>335705</v>
+      </c>
+      <c r="L57" t="n">
+        <v>16198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2065,6 +2757,18 @@
       <c r="H58" t="n">
         <v>0.5905060000000001</v>
       </c>
+      <c r="I58" t="n">
+        <v>117376</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5036</v>
+      </c>
+      <c r="K58" t="n">
+        <v>84020</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8435</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2093,6 +2797,18 @@
       <c r="H59" t="n">
         <v>-0.4651388999999999</v>
       </c>
+      <c r="I59" t="n">
+        <v>71292</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3154</v>
+      </c>
+      <c r="K59" t="n">
+        <v>101378</v>
+      </c>
+      <c r="L59" t="n">
+        <v>8022</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2121,6 +2837,18 @@
       <c r="H60" t="n">
         <v>-3.9321256</v>
       </c>
+      <c r="I60" t="n">
+        <v>333635</v>
+      </c>
+      <c r="J60" t="n">
+        <v>15033</v>
+      </c>
+      <c r="K60" t="n">
+        <v>391017</v>
+      </c>
+      <c r="L60" t="n">
+        <v>22765</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2149,6 +2877,14 @@
       <c r="H61" t="n">
         <v>-3.435973</v>
       </c>
+      <c r="I61" t="n">
+        <v>559937</v>
+      </c>
+      <c r="J61" t="n">
+        <v>20503</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2177,6 +2913,18 @@
       <c r="H62" t="n">
         <v>-1.1451461</v>
       </c>
+      <c r="I62" t="n">
+        <v>177718</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6865</v>
+      </c>
+      <c r="K62" t="n">
+        <v>218192</v>
+      </c>
+      <c r="L62" t="n">
+        <v>11750</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2205,6 +2953,18 @@
       <c r="H63" t="n">
         <v>0.4685497</v>
       </c>
+      <c r="I63" t="n">
+        <v>107676</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4548</v>
+      </c>
+      <c r="K63" t="n">
+        <v>81673</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5227</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2233,6 +2993,18 @@
       <c r="H64" t="n">
         <v>-2.0782533</v>
       </c>
+      <c r="I64" t="n">
+        <v>153009</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6167</v>
+      </c>
+      <c r="K64" t="n">
+        <v>218900</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8735</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2261,6 +3033,18 @@
       <c r="H65" t="n">
         <v>-1.2034285</v>
       </c>
+      <c r="I65" t="n">
+        <v>82179</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3218</v>
+      </c>
+      <c r="K65" t="n">
+        <v>94199</v>
+      </c>
+      <c r="L65" t="n">
+        <v>11322</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2289,6 +3073,18 @@
       <c r="H66" t="n">
         <v>-2.2185932</v>
       </c>
+      <c r="I66" t="n">
+        <v>278876</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10411</v>
+      </c>
+      <c r="K66" t="n">
+        <v>307144</v>
+      </c>
+      <c r="L66" t="n">
+        <v>13162</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2317,6 +3113,18 @@
       <c r="H67" t="n">
         <v>-2.7151117</v>
       </c>
+      <c r="I67" t="n">
+        <v>301221</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11701</v>
+      </c>
+      <c r="K67" t="n">
+        <v>332213</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14569</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2345,6 +3153,18 @@
       <c r="H68" t="n">
         <v>-1.421629</v>
       </c>
+      <c r="I68" t="n">
+        <v>239935</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9099</v>
+      </c>
+      <c r="K68" t="n">
+        <v>276654</v>
+      </c>
+      <c r="L68" t="n">
+        <v>11802</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2373,6 +3193,18 @@
       <c r="H69" t="n">
         <v>-0.774936</v>
       </c>
+      <c r="I69" t="n">
+        <v>101250</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4807</v>
+      </c>
+      <c r="K69" t="n">
+        <v>139624</v>
+      </c>
+      <c r="L69" t="n">
+        <v>9642</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2401,6 +3233,18 @@
       <c r="H70" t="n">
         <v>-0.6409481</v>
       </c>
+      <c r="I70" t="n">
+        <v>30748</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1619</v>
+      </c>
+      <c r="K70" t="n">
+        <v>48087</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7388</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2429,6 +3273,18 @@
       <c r="H71" t="n">
         <v>-2.632596</v>
       </c>
+      <c r="I71" t="n">
+        <v>352109</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12907</v>
+      </c>
+      <c r="K71" t="n">
+        <v>371867</v>
+      </c>
+      <c r="L71" t="n">
+        <v>14167</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2457,6 +3313,18 @@
       <c r="H72" t="n">
         <v>-3.188267</v>
       </c>
+      <c r="I72" t="n">
+        <v>646155</v>
+      </c>
+      <c r="J72" t="n">
+        <v>25138</v>
+      </c>
+      <c r="K72" t="n">
+        <v>662865</v>
+      </c>
+      <c r="L72" t="n">
+        <v>21522</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2485,6 +3353,18 @@
       <c r="H73" t="n">
         <v>-0.0909852</v>
       </c>
+      <c r="I73" t="n">
+        <v>33197</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3310</v>
+      </c>
+      <c r="K73" t="n">
+        <v>34465</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3571</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2513,6 +3393,18 @@
       <c r="H74" t="n">
         <v>-3.7529409</v>
       </c>
+      <c r="I74" t="n">
+        <v>674156</v>
+      </c>
+      <c r="J74" t="n">
+        <v>24300</v>
+      </c>
+      <c r="K74" t="n">
+        <v>723983</v>
+      </c>
+      <c r="L74" t="n">
+        <v>27748</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2541,6 +3433,18 @@
       <c r="H75" t="n">
         <v>0.8918740000000001</v>
       </c>
+      <c r="I75" t="n">
+        <v>148017</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6019</v>
+      </c>
+      <c r="K75" t="n">
+        <v>117953</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7333</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2569,6 +3473,18 @@
       <c r="H76" t="n">
         <v>-3.82948</v>
       </c>
+      <c r="I76" t="n">
+        <v>397384</v>
+      </c>
+      <c r="J76" t="n">
+        <v>14501</v>
+      </c>
+      <c r="K76" t="n">
+        <v>392527</v>
+      </c>
+      <c r="L76" t="n">
+        <v>15887</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2597,6 +3513,14 @@
       <c r="H77" t="n">
         <v>-3.389242</v>
       </c>
+      <c r="I77" t="n">
+        <v>484376</v>
+      </c>
+      <c r="J77" t="n">
+        <v>19812</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2625,6 +3549,18 @@
       <c r="H78" t="n">
         <v>-0.6842332999999999</v>
       </c>
+      <c r="I78" t="n">
+        <v>146136</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6435</v>
+      </c>
+      <c r="K78" t="n">
+        <v>161936</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8827</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2653,6 +3589,18 @@
       <c r="H79" t="n">
         <v>-5.0527125</v>
       </c>
+      <c r="I79" t="n">
+        <v>392593</v>
+      </c>
+      <c r="J79" t="n">
+        <v>15482</v>
+      </c>
+      <c r="K79" t="n">
+        <v>474898</v>
+      </c>
+      <c r="L79" t="n">
+        <v>19847</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2681,6 +3629,18 @@
       <c r="H80" t="n">
         <v>-1.8838937</v>
       </c>
+      <c r="I80" t="n">
+        <v>138816</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5381</v>
+      </c>
+      <c r="K80" t="n">
+        <v>160715</v>
+      </c>
+      <c r="L80" t="n">
+        <v>17660</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2709,6 +3669,18 @@
       <c r="H81" t="n">
         <v>-1.8811598</v>
       </c>
+      <c r="I81" t="n">
+        <v>427484</v>
+      </c>
+      <c r="J81" t="n">
+        <v>16960</v>
+      </c>
+      <c r="K81" t="n">
+        <v>444113</v>
+      </c>
+      <c r="L81" t="n">
+        <v>20841</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2737,6 +3709,18 @@
       <c r="H82" t="n">
         <v>-1.5089521</v>
       </c>
+      <c r="I82" t="n">
+        <v>153111</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5560</v>
+      </c>
+      <c r="K82" t="n">
+        <v>182458</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6967</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2765,6 +3749,14 @@
       <c r="H83" t="n">
         <v>-2.1562821</v>
       </c>
+      <c r="I83" t="n">
+        <v>411375</v>
+      </c>
+      <c r="J83" t="n">
+        <v>16772</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2793,6 +3785,18 @@
       <c r="H84" t="n">
         <v>-0.1872275</v>
       </c>
+      <c r="I84" t="n">
+        <v>67630</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2887</v>
+      </c>
+      <c r="K84" t="n">
+        <v>69999</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4798</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2821,6 +3825,18 @@
       <c r="H85" t="n">
         <v>-0.0956895</v>
       </c>
+      <c r="I85" t="n">
+        <v>64052</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3393</v>
+      </c>
+      <c r="K85" t="n">
+        <v>51398</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4267</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2849,6 +3865,18 @@
       <c r="H86" t="n">
         <v>-0.4993067999999999</v>
       </c>
+      <c r="I86" t="n">
+        <v>38962</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1681</v>
+      </c>
+      <c r="K86" t="n">
+        <v>41716</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5934</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2877,6 +3905,18 @@
       <c r="H87" t="n">
         <v>-1.559458</v>
       </c>
+      <c r="I87" t="n">
+        <v>399792</v>
+      </c>
+      <c r="J87" t="n">
+        <v>15337</v>
+      </c>
+      <c r="K87" t="n">
+        <v>405116</v>
+      </c>
+      <c r="L87" t="n">
+        <v>13782</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2905,6 +3945,18 @@
       <c r="H88" t="n">
         <v>0.216872</v>
       </c>
+      <c r="I88" t="n">
+        <v>88759</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3616</v>
+      </c>
+      <c r="K88" t="n">
+        <v>63627</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7267</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2933,6 +3985,18 @@
       <c r="H89" t="n">
         <v>-1.1625942</v>
       </c>
+      <c r="I89" t="n">
+        <v>123753</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5093</v>
+      </c>
+      <c r="K89" t="n">
+        <v>157400</v>
+      </c>
+      <c r="L89" t="n">
+        <v>11262</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2961,6 +4025,18 @@
       <c r="H90" t="n">
         <v>-3.4224985</v>
       </c>
+      <c r="I90" t="n">
+        <v>378762</v>
+      </c>
+      <c r="J90" t="n">
+        <v>13978</v>
+      </c>
+      <c r="K90" t="n">
+        <v>393113</v>
+      </c>
+      <c r="L90" t="n">
+        <v>17576</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2989,6 +4065,18 @@
       <c r="H91" t="n">
         <v>-1.4746186</v>
       </c>
+      <c r="I91" t="n">
+        <v>206556</v>
+      </c>
+      <c r="J91" t="n">
+        <v>8022</v>
+      </c>
+      <c r="K91" t="n">
+        <v>237928</v>
+      </c>
+      <c r="L91" t="n">
+        <v>10302</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3017,6 +4105,18 @@
       <c r="H92" t="n">
         <v>-1.6699826</v>
       </c>
+      <c r="I92" t="n">
+        <v>252314</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10598</v>
+      </c>
+      <c r="K92" t="n">
+        <v>280045</v>
+      </c>
+      <c r="L92" t="n">
+        <v>18071</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3045,6 +4145,18 @@
       <c r="H93" t="n">
         <v>-1.128462</v>
       </c>
+      <c r="I93" t="n">
+        <v>275178</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10693</v>
+      </c>
+      <c r="K93" t="n">
+        <v>281956</v>
+      </c>
+      <c r="L93" t="n">
+        <v>10242</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3073,6 +4185,18 @@
       <c r="H94" t="n">
         <v>-2.3444786</v>
       </c>
+      <c r="I94" t="n">
+        <v>169967</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6781</v>
+      </c>
+      <c r="K94" t="n">
+        <v>211266</v>
+      </c>
+      <c r="L94" t="n">
+        <v>15516</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3101,6 +4225,18 @@
       <c r="H95" t="n">
         <v>1.3134027</v>
       </c>
+      <c r="I95" t="n">
+        <v>160886</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6184</v>
+      </c>
+      <c r="K95" t="n">
+        <v>155275</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8407</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3129,6 +4265,18 @@
       <c r="H96" t="n">
         <v>-2.081112</v>
       </c>
+      <c r="I96" t="n">
+        <v>190802</v>
+      </c>
+      <c r="J96" t="n">
+        <v>7264</v>
+      </c>
+      <c r="K96" t="n">
+        <v>208397</v>
+      </c>
+      <c r="L96" t="n">
+        <v>13795</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3157,6 +4305,18 @@
       <c r="H97" t="n">
         <v>-3.6052581</v>
       </c>
+      <c r="I97" t="n">
+        <v>541672</v>
+      </c>
+      <c r="J97" t="n">
+        <v>19857</v>
+      </c>
+      <c r="K97" t="n">
+        <v>565365</v>
+      </c>
+      <c r="L97" t="n">
+        <v>19621</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3185,6 +4345,18 @@
       <c r="H98" t="n">
         <v>-2.970721</v>
       </c>
+      <c r="I98" t="n">
+        <v>754034</v>
+      </c>
+      <c r="J98" t="n">
+        <v>27520</v>
+      </c>
+      <c r="K98" t="n">
+        <v>758044</v>
+      </c>
+      <c r="L98" t="n">
+        <v>24042</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3213,6 +4385,18 @@
       <c r="H99" t="n">
         <v>-0.3043136</v>
       </c>
+      <c r="I99" t="n">
+        <v>21969</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K99" t="n">
+        <v>17303</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1646</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3241,6 +4425,18 @@
       <c r="H100" t="n">
         <v>0.2428121</v>
       </c>
+      <c r="I100" t="n">
+        <v>139819</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6396</v>
+      </c>
+      <c r="K100" t="n">
+        <v>154282</v>
+      </c>
+      <c r="L100" t="n">
+        <v>10858</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3269,6 +4465,18 @@
       <c r="H101" t="n">
         <v>-3.2591051</v>
       </c>
+      <c r="I101" t="n">
+        <v>232750</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9760</v>
+      </c>
+      <c r="K101" t="n">
+        <v>239637</v>
+      </c>
+      <c r="L101" t="n">
+        <v>16773</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3297,6 +4505,18 @@
       <c r="H102" t="n">
         <v>-0.8749889999999999</v>
       </c>
+      <c r="I102" t="n">
+        <v>57101</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2816</v>
+      </c>
+      <c r="K102" t="n">
+        <v>64894</v>
+      </c>
+      <c r="L102" t="n">
+        <v>8203</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3325,6 +4545,14 @@
       <c r="H103" t="n">
         <v>-0.0475868</v>
       </c>
+      <c r="I103" t="n">
+        <v>73875</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3795</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3353,6 +4581,18 @@
       <c r="H104" t="n">
         <v>0.100202</v>
       </c>
+      <c r="I104" t="n">
+        <v>243898</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11482</v>
+      </c>
+      <c r="K104" t="n">
+        <v>311627</v>
+      </c>
+      <c r="L104" t="n">
+        <v>22713</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3381,6 +4621,18 @@
       <c r="H105" t="n">
         <v>-2.7704464</v>
       </c>
+      <c r="I105" t="n">
+        <v>621051</v>
+      </c>
+      <c r="J105" t="n">
+        <v>24136</v>
+      </c>
+      <c r="K105" t="n">
+        <v>636293</v>
+      </c>
+      <c r="L105" t="n">
+        <v>22682</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3409,6 +4661,18 @@
       <c r="H106" t="n">
         <v>-0.459232</v>
       </c>
+      <c r="I106" t="n">
+        <v>151952</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6284</v>
+      </c>
+      <c r="K106" t="n">
+        <v>179794</v>
+      </c>
+      <c r="L106" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3437,6 +4701,18 @@
       <c r="H107" t="n">
         <v>-0.4344106</v>
       </c>
+      <c r="I107" t="n">
+        <v>337493</v>
+      </c>
+      <c r="J107" t="n">
+        <v>13368</v>
+      </c>
+      <c r="K107" t="n">
+        <v>426407</v>
+      </c>
+      <c r="L107" t="n">
+        <v>16996</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3465,6 +4741,14 @@
       <c r="H108" t="n">
         <v>-1.8285789</v>
       </c>
+      <c r="I108" t="n">
+        <v>216040</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8784</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3493,6 +4777,18 @@
       <c r="H109" t="n">
         <v>0.9707800999999999</v>
       </c>
+      <c r="I109" t="n">
+        <v>191872</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7385</v>
+      </c>
+      <c r="K109" t="n">
+        <v>165841</v>
+      </c>
+      <c r="L109" t="n">
+        <v>11662</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3521,6 +4817,18 @@
       <c r="H110" t="n">
         <v>0.290472</v>
       </c>
+      <c r="I110" t="n">
+        <v>134082</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5908</v>
+      </c>
+      <c r="K110" t="n">
+        <v>140674</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9067</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3549,6 +4857,18 @@
       <c r="H111" t="n">
         <v>-1.374688</v>
       </c>
+      <c r="I111" t="n">
+        <v>93393</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3584</v>
+      </c>
+      <c r="K111" t="n">
+        <v>106397</v>
+      </c>
+      <c r="L111" t="n">
+        <v>6749</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3577,6 +4897,18 @@
       <c r="H112" t="n">
         <v>-2.6962179</v>
       </c>
+      <c r="I112" t="n">
+        <v>463035</v>
+      </c>
+      <c r="J112" t="n">
+        <v>16853</v>
+      </c>
+      <c r="K112" t="n">
+        <v>497676</v>
+      </c>
+      <c r="L112" t="n">
+        <v>23685</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3605,6 +4937,18 @@
       <c r="H113" t="n">
         <v>-0.3983625</v>
       </c>
+      <c r="I113" t="n">
+        <v>23329</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1535</v>
+      </c>
+      <c r="K113" t="n">
+        <v>30472</v>
+      </c>
+      <c r="L113" t="n">
+        <v>5523</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3633,6 +4977,18 @@
       <c r="H114" t="n">
         <v>-0.0807119</v>
       </c>
+      <c r="I114" t="n">
+        <v>59447</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2690</v>
+      </c>
+      <c r="K114" t="n">
+        <v>50910</v>
+      </c>
+      <c r="L114" t="n">
+        <v>5407</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3661,6 +5017,18 @@
       <c r="H115" t="n">
         <v>0.0412824</v>
       </c>
+      <c r="I115" t="n">
+        <v>70789</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2843</v>
+      </c>
+      <c r="K115" t="n">
+        <v>55087</v>
+      </c>
+      <c r="L115" t="n">
+        <v>7365</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3689,6 +5057,18 @@
       <c r="H116" t="n">
         <v>-0.2688232</v>
       </c>
+      <c r="I116" t="n">
+        <v>38534</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2070</v>
+      </c>
+      <c r="K116" t="n">
+        <v>28076</v>
+      </c>
+      <c r="L116" t="n">
+        <v>5715</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3717,6 +5097,18 @@
       <c r="H117" t="n">
         <v>-1.3255597</v>
       </c>
+      <c r="I117" t="n">
+        <v>199491</v>
+      </c>
+      <c r="J117" t="n">
+        <v>7757</v>
+      </c>
+      <c r="K117" t="n">
+        <v>235721</v>
+      </c>
+      <c r="L117" t="n">
+        <v>15190</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3745,6 +5137,18 @@
       <c r="H118" t="n">
         <v>-3.5274889</v>
       </c>
+      <c r="I118" t="n">
+        <v>250083</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10563</v>
+      </c>
+      <c r="K118" t="n">
+        <v>304387</v>
+      </c>
+      <c r="L118" t="n">
+        <v>10267</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3773,6 +5177,18 @@
       <c r="H119" t="n">
         <v>-3.7839131</v>
       </c>
+      <c r="I119" t="n">
+        <v>661756</v>
+      </c>
+      <c r="J119" t="n">
+        <v>24031</v>
+      </c>
+      <c r="K119" t="n">
+        <v>704129</v>
+      </c>
+      <c r="L119" t="n">
+        <v>22242</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3801,6 +5217,18 @@
       <c r="H120" t="n">
         <v>-1.1865868</v>
       </c>
+      <c r="I120" t="n">
+        <v>119911</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4529</v>
+      </c>
+      <c r="K120" t="n">
+        <v>102165</v>
+      </c>
+      <c r="L120" t="n">
+        <v>8089</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3829,6 +5257,18 @@
       <c r="H121" t="n">
         <v>0.0873357</v>
       </c>
+      <c r="I121" t="n">
+        <v>157189</v>
+      </c>
+      <c r="J121" t="n">
+        <v>7116</v>
+      </c>
+      <c r="K121" t="n">
+        <v>182755</v>
+      </c>
+      <c r="L121" t="n">
+        <v>10594</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3857,6 +5297,18 @@
       <c r="H122" t="n">
         <v>-3.1495175</v>
       </c>
+      <c r="I122" t="n">
+        <v>717988</v>
+      </c>
+      <c r="J122" t="n">
+        <v>25989</v>
+      </c>
+      <c r="K122" t="n">
+        <v>718564</v>
+      </c>
+      <c r="L122" t="n">
+        <v>26658</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3885,6 +5337,18 @@
       <c r="H123" t="n">
         <v>-3.1418908</v>
       </c>
+      <c r="I123" t="n">
+        <v>345959</v>
+      </c>
+      <c r="J123" t="n">
+        <v>12727</v>
+      </c>
+      <c r="K123" t="n">
+        <v>341185</v>
+      </c>
+      <c r="L123" t="n">
+        <v>14339</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3913,6 +5377,18 @@
       <c r="H124" t="n">
         <v>1.1706631</v>
       </c>
+      <c r="I124" t="n">
+        <v>149276</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5663</v>
+      </c>
+      <c r="K124" t="n">
+        <v>143734</v>
+      </c>
+      <c r="L124" t="n">
+        <v>8875</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3941,6 +5417,18 @@
       <c r="H125" t="n">
         <v>-2.5519169</v>
       </c>
+      <c r="I125" t="n">
+        <v>185511</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7671</v>
+      </c>
+      <c r="K125" t="n">
+        <v>241956</v>
+      </c>
+      <c r="L125" t="n">
+        <v>15005</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3969,6 +5457,18 @@
       <c r="H126" t="n">
         <v>-2.9030322</v>
       </c>
+      <c r="I126" t="n">
+        <v>374487</v>
+      </c>
+      <c r="J126" t="n">
+        <v>13989</v>
+      </c>
+      <c r="K126" t="n">
+        <v>386981</v>
+      </c>
+      <c r="L126" t="n">
+        <v>15475</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3997,6 +5497,18 @@
       <c r="H127" t="n">
         <v>-1.603411</v>
       </c>
+      <c r="I127" t="n">
+        <v>449759</v>
+      </c>
+      <c r="J127" t="n">
+        <v>17381</v>
+      </c>
+      <c r="K127" t="n">
+        <v>466108</v>
+      </c>
+      <c r="L127" t="n">
+        <v>16602</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4025,6 +5537,18 @@
       <c r="H128" t="n">
         <v>-1.0800559</v>
       </c>
+      <c r="I128" t="n">
+        <v>210298</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9053</v>
+      </c>
+      <c r="K128" t="n">
+        <v>246206</v>
+      </c>
+      <c r="L128" t="n">
+        <v>12968</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4053,6 +5577,18 @@
       <c r="H129" t="n">
         <v>-4.2583345</v>
       </c>
+      <c r="I129" t="n">
+        <v>643203</v>
+      </c>
+      <c r="J129" t="n">
+        <v>23167</v>
+      </c>
+      <c r="K129" t="n">
+        <v>676354</v>
+      </c>
+      <c r="L129" t="n">
+        <v>21222</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4081,6 +5617,18 @@
       <c r="H130" t="n">
         <v>-2.238156</v>
       </c>
+      <c r="I130" t="n">
+        <v>158485</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6355</v>
+      </c>
+      <c r="K130" t="n">
+        <v>209048</v>
+      </c>
+      <c r="L130" t="n">
+        <v>8467</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4109,6 +5657,18 @@
       <c r="H131" t="n">
         <v>-1.1409959</v>
       </c>
+      <c r="I131" t="n">
+        <v>125485</v>
+      </c>
+      <c r="J131" t="n">
+        <v>5032</v>
+      </c>
+      <c r="K131" t="n">
+        <v>100337</v>
+      </c>
+      <c r="L131" t="n">
+        <v>8940</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4137,6 +5697,18 @@
       <c r="H132" t="n">
         <v>0.370759</v>
       </c>
+      <c r="I132" t="n">
+        <v>97473</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3948</v>
+      </c>
+      <c r="K132" t="n">
+        <v>70850</v>
+      </c>
+      <c r="L132" t="n">
+        <v>5047</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4165,6 +5737,18 @@
       <c r="H133" t="n">
         <v>1.728047</v>
       </c>
+      <c r="I133" t="n">
+        <v>257955</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9924</v>
+      </c>
+      <c r="K133" t="n">
+        <v>251355</v>
+      </c>
+      <c r="L133" t="n">
+        <v>14767</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4193,6 +5777,18 @@
       <c r="H134" t="n">
         <v>0.009821399999999999</v>
       </c>
+      <c r="I134" t="n">
+        <v>104994</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4204</v>
+      </c>
+      <c r="K134" t="n">
+        <v>42274</v>
+      </c>
+      <c r="L134" t="n">
+        <v>4588</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4221,6 +5817,18 @@
       <c r="H135" t="n">
         <v>-0.5704090000000001</v>
       </c>
+      <c r="I135" t="n">
+        <v>35415</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1869</v>
+      </c>
+      <c r="K135" t="n">
+        <v>28275</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3049</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4249,6 +5857,18 @@
       <c r="H136" t="n">
         <v>-4.1334836</v>
       </c>
+      <c r="I136" t="n">
+        <v>377000</v>
+      </c>
+      <c r="J136" t="n">
+        <v>15793</v>
+      </c>
+      <c r="K136" t="n">
+        <v>496559</v>
+      </c>
+      <c r="L136" t="n">
+        <v>23829</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4277,6 +5897,18 @@
       <c r="H137" t="n">
         <v>-0.0553621</v>
       </c>
+      <c r="I137" t="n">
+        <v>95444</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4032</v>
+      </c>
+      <c r="K137" t="n">
+        <v>44547</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4390</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4305,6 +5937,18 @@
       <c r="H138" t="n">
         <v>-2.695822</v>
       </c>
+      <c r="I138" t="n">
+        <v>311662</v>
+      </c>
+      <c r="J138" t="n">
+        <v>11480</v>
+      </c>
+      <c r="K138" t="n">
+        <v>328174</v>
+      </c>
+      <c r="L138" t="n">
+        <v>13300</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4333,6 +5977,18 @@
       <c r="H139" t="n">
         <v>-0.666149</v>
       </c>
+      <c r="I139" t="n">
+        <v>177879</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7451</v>
+      </c>
+      <c r="K139" t="n">
+        <v>195418</v>
+      </c>
+      <c r="L139" t="n">
+        <v>15958</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4361,6 +6017,18 @@
       <c r="H140" t="n">
         <v>-0.2378535</v>
       </c>
+      <c r="I140" t="n">
+        <v>22940</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1439</v>
+      </c>
+      <c r="K140" t="n">
+        <v>22619</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3207</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4389,6 +6057,14 @@
       <c r="H141" t="n">
         <v>-0.9346458</v>
       </c>
+      <c r="I141" t="n">
+        <v>158657</v>
+      </c>
+      <c r="J141" t="n">
+        <v>7066</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4417,6 +6093,18 @@
       <c r="H142" t="n">
         <v>-0.1033379</v>
       </c>
+      <c r="I142" t="n">
+        <v>46899</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3170</v>
+      </c>
+      <c r="K142" t="n">
+        <v>38537</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4493</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4445,6 +6133,18 @@
       <c r="H143" t="n">
         <v>0.087806</v>
       </c>
+      <c r="I143" t="n">
+        <v>82896</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3626</v>
+      </c>
+      <c r="K143" t="n">
+        <v>70087</v>
+      </c>
+      <c r="L143" t="n">
+        <v>5707</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4473,6 +6173,18 @@
       <c r="H144" t="n">
         <v>-1.541812</v>
       </c>
+      <c r="I144" t="n">
+        <v>339107</v>
+      </c>
+      <c r="J144" t="n">
+        <v>14054</v>
+      </c>
+      <c r="K144" t="n">
+        <v>367136</v>
+      </c>
+      <c r="L144" t="n">
+        <v>13842</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4501,6 +6213,18 @@
       <c r="H145" t="n">
         <v>-0.3421192</v>
       </c>
+      <c r="I145" t="n">
+        <v>27215</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1758</v>
+      </c>
+      <c r="K145" t="n">
+        <v>41946</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4387</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4529,6 +6253,18 @@
       <c r="H146" t="n">
         <v>-0.8929571000000001</v>
       </c>
+      <c r="I146" t="n">
+        <v>41290</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1835</v>
+      </c>
+      <c r="K146" t="n">
+        <v>48202</v>
+      </c>
+      <c r="L146" t="n">
+        <v>8092</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4557,6 +6293,18 @@
       <c r="H147" t="n">
         <v>-1.212926</v>
       </c>
+      <c r="I147" t="n">
+        <v>421555</v>
+      </c>
+      <c r="J147" t="n">
+        <v>16346</v>
+      </c>
+      <c r="K147" t="n">
+        <v>511551</v>
+      </c>
+      <c r="L147" t="n">
+        <v>17802</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4585,6 +6333,18 @@
       <c r="H148" t="n">
         <v>0.573453</v>
       </c>
+      <c r="I148" t="n">
+        <v>132244</v>
+      </c>
+      <c r="J148" t="n">
+        <v>6065</v>
+      </c>
+      <c r="K148" t="n">
+        <v>162206</v>
+      </c>
+      <c r="L148" t="n">
+        <v>9487</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4613,6 +6373,18 @@
       <c r="H149" t="n">
         <v>-0.9847131999999998</v>
       </c>
+      <c r="I149" t="n">
+        <v>97718</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K149" t="n">
+        <v>86282</v>
+      </c>
+      <c r="L149" t="n">
+        <v>6649</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4641,6 +6413,18 @@
       <c r="H150" t="n">
         <v>0.2120829</v>
       </c>
+      <c r="I150" t="n">
+        <v>91532</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3891</v>
+      </c>
+      <c r="K150" t="n">
+        <v>56145</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5194</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4669,6 +6453,18 @@
       <c r="H151" t="n">
         <v>-2.6544182</v>
       </c>
+      <c r="I151" t="n">
+        <v>201815</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8554</v>
+      </c>
+      <c r="K151" t="n">
+        <v>269282</v>
+      </c>
+      <c r="L151" t="n">
+        <v>15255</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4697,6 +6493,18 @@
       <c r="H152" t="n">
         <v>-0.3075666</v>
       </c>
+      <c r="I152" t="n">
+        <v>41000</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2074</v>
+      </c>
+      <c r="K152" t="n">
+        <v>57130</v>
+      </c>
+      <c r="L152" t="n">
+        <v>7338</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4725,6 +6533,18 @@
       <c r="H153" t="n">
         <v>-1.8876721</v>
       </c>
+      <c r="I153" t="n">
+        <v>276665</v>
+      </c>
+      <c r="J153" t="n">
+        <v>11755</v>
+      </c>
+      <c r="K153" t="n">
+        <v>350217</v>
+      </c>
+      <c r="L153" t="n">
+        <v>16430</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4753,6 +6573,18 @@
       <c r="H154" t="n">
         <v>-4.2263955</v>
       </c>
+      <c r="I154" t="n">
+        <v>896215</v>
+      </c>
+      <c r="J154" t="n">
+        <v>33340</v>
+      </c>
+      <c r="K154" t="n">
+        <v>943771</v>
+      </c>
+      <c r="L154" t="n">
+        <v>37615</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4781,6 +6613,18 @@
       <c r="H155" t="n">
         <v>-0.4481378</v>
       </c>
+      <c r="I155" t="n">
+        <v>11208</v>
+      </c>
+      <c r="J155" t="n">
+        <v>928</v>
+      </c>
+      <c r="K155" t="n">
+        <v>14486</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3232</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4809,6 +6653,18 @@
       <c r="H156" t="n">
         <v>-1.4115209</v>
       </c>
+      <c r="I156" t="n">
+        <v>178399</v>
+      </c>
+      <c r="J156" t="n">
+        <v>7406</v>
+      </c>
+      <c r="K156" t="n">
+        <v>221032</v>
+      </c>
+      <c r="L156" t="n">
+        <v>14431</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4837,6 +6693,18 @@
       <c r="H157" t="n">
         <v>-0.325858</v>
       </c>
+      <c r="I157" t="n">
+        <v>63648</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3347</v>
+      </c>
+      <c r="K157" t="n">
+        <v>84335</v>
+      </c>
+      <c r="L157" t="n">
+        <v>6089</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4865,6 +6733,18 @@
       <c r="H158" t="n">
         <v>-0.3633719</v>
       </c>
+      <c r="I158" t="n">
+        <v>15047</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1205</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9393</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1522</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4893,6 +6773,18 @@
       <c r="H159" t="n">
         <v>-0.182552</v>
       </c>
+      <c r="I159" t="n">
+        <v>121070</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5413</v>
+      </c>
+      <c r="K159" t="n">
+        <v>128844</v>
+      </c>
+      <c r="L159" t="n">
+        <v>6907</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4921,6 +6813,18 @@
       <c r="H160" t="n">
         <v>1.1480867</v>
       </c>
+      <c r="I160" t="n">
+        <v>173775</v>
+      </c>
+      <c r="J160" t="n">
+        <v>7141</v>
+      </c>
+      <c r="K160" t="n">
+        <v>143979</v>
+      </c>
+      <c r="L160" t="n">
+        <v>8767</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4949,6 +6853,18 @@
       <c r="H161" t="n">
         <v>-4.429140299999999</v>
       </c>
+      <c r="I161" t="n">
+        <v>447052</v>
+      </c>
+      <c r="J161" t="n">
+        <v>16416</v>
+      </c>
+      <c r="K161" t="n">
+        <v>449678</v>
+      </c>
+      <c r="L161" t="n">
+        <v>23118</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4977,6 +6893,18 @@
       <c r="H162" t="n">
         <v>-1.304734</v>
       </c>
+      <c r="I162" t="n">
+        <v>128311</v>
+      </c>
+      <c r="J162" t="n">
+        <v>9253</v>
+      </c>
+      <c r="K162" t="n">
+        <v>122190</v>
+      </c>
+      <c r="L162" t="n">
+        <v>13753</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5005,6 +6933,14 @@
       <c r="H163" t="n">
         <v>-6.2965725</v>
       </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>536562</v>
+      </c>
+      <c r="L163" t="n">
+        <v>45320</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5033,6 +6969,18 @@
       <c r="H164" t="n">
         <v>-0.1028346</v>
       </c>
+      <c r="I164" t="n">
+        <v>43489</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3349</v>
+      </c>
+      <c r="K164" t="n">
+        <v>35828</v>
+      </c>
+      <c r="L164" t="n">
+        <v>5072</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5061,6 +7009,18 @@
       <c r="H165" t="n">
         <v>-0.1938253</v>
       </c>
+      <c r="I165" t="n">
+        <v>25622</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1652</v>
+      </c>
+      <c r="K165" t="n">
+        <v>24302</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3398</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5089,6 +7049,18 @@
       <c r="H166" t="n">
         <v>-0.7302489999999999</v>
       </c>
+      <c r="I166" t="n">
+        <v>131467</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5682</v>
+      </c>
+      <c r="K166" t="n">
+        <v>149620</v>
+      </c>
+      <c r="L166" t="n">
+        <v>7147</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5117,6 +7089,18 @@
       <c r="H167" t="n">
         <v>0.493615</v>
       </c>
+      <c r="I167" t="n">
+        <v>214632</v>
+      </c>
+      <c r="J167" t="n">
+        <v>9025</v>
+      </c>
+      <c r="K167" t="n">
+        <v>204116</v>
+      </c>
+      <c r="L167" t="n">
+        <v>13715</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5145,6 +7129,18 @@
       <c r="H168" t="n">
         <v>-0.33657</v>
       </c>
+      <c r="I168" t="n">
+        <v>345374</v>
+      </c>
+      <c r="J168" t="n">
+        <v>13423</v>
+      </c>
+      <c r="K168" t="n">
+        <v>348454</v>
+      </c>
+      <c r="L168" t="n">
+        <v>15876</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5173,6 +7169,18 @@
       <c r="H169" t="n">
         <v>-0.300689</v>
       </c>
+      <c r="I169" t="n">
+        <v>29988</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1941</v>
+      </c>
+      <c r="K169" t="n">
+        <v>16664</v>
+      </c>
+      <c r="L169" t="n">
+        <v>3493</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5201,6 +7209,18 @@
       <c r="H170" t="n">
         <v>-1.8009509</v>
       </c>
+      <c r="I170" t="n">
+        <v>303588</v>
+      </c>
+      <c r="J170" t="n">
+        <v>12414</v>
+      </c>
+      <c r="K170" t="n">
+        <v>352549</v>
+      </c>
+      <c r="L170" t="n">
+        <v>17885</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5229,6 +7249,18 @@
       <c r="H171" t="n">
         <v>-2.852907</v>
       </c>
+      <c r="I171" t="n">
+        <v>333604</v>
+      </c>
+      <c r="J171" t="n">
+        <v>12068</v>
+      </c>
+      <c r="K171" t="n">
+        <v>371679</v>
+      </c>
+      <c r="L171" t="n">
+        <v>14604</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5257,6 +7289,18 @@
       <c r="H172" t="n">
         <v>-0.1178424</v>
       </c>
+      <c r="I172" t="n">
+        <v>31722</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2722</v>
+      </c>
+      <c r="K172" t="n">
+        <v>31478</v>
+      </c>
+      <c r="L172" t="n">
+        <v>4776</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5285,6 +7329,18 @@
       <c r="H173" t="n">
         <v>-2.799346700000001</v>
       </c>
+      <c r="I173" t="n">
+        <v>384127</v>
+      </c>
+      <c r="J173" t="n">
+        <v>14368</v>
+      </c>
+      <c r="K173" t="n">
+        <v>400657</v>
+      </c>
+      <c r="L173" t="n">
+        <v>13602</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5313,6 +7369,18 @@
       <c r="H174" t="n">
         <v>-1.5490774</v>
       </c>
+      <c r="I174" t="n">
+        <v>315672</v>
+      </c>
+      <c r="J174" t="n">
+        <v>12279</v>
+      </c>
+      <c r="K174" t="n">
+        <v>330107</v>
+      </c>
+      <c r="L174" t="n">
+        <v>12282</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5341,6 +7409,18 @@
       <c r="H175" t="n">
         <v>-1.1397592</v>
       </c>
+      <c r="I175" t="n">
+        <v>163455</v>
+      </c>
+      <c r="J175" t="n">
+        <v>6786</v>
+      </c>
+      <c r="K175" t="n">
+        <v>190707</v>
+      </c>
+      <c r="L175" t="n">
+        <v>8682</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5369,6 +7449,18 @@
       <c r="H176" t="n">
         <v>0.00878</v>
       </c>
+      <c r="I176" t="n">
+        <v>111961</v>
+      </c>
+      <c r="J176" t="n">
+        <v>4410</v>
+      </c>
+      <c r="K176" t="n">
+        <v>115056</v>
+      </c>
+      <c r="L176" t="n">
+        <v>7867</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5397,6 +7489,18 @@
       <c r="H177" t="n">
         <v>-0.0073177</v>
       </c>
+      <c r="I177" t="n">
+        <v>40681</v>
+      </c>
+      <c r="J177" t="n">
+        <v>4491</v>
+      </c>
+      <c r="K177" t="n">
+        <v>43755</v>
+      </c>
+      <c r="L177" t="n">
+        <v>5189</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5425,6 +7529,18 @@
       <c r="H178" t="n">
         <v>-1.831672</v>
       </c>
+      <c r="I178" t="n">
+        <v>193291</v>
+      </c>
+      <c r="J178" t="n">
+        <v>7327</v>
+      </c>
+      <c r="K178" t="n">
+        <v>273944</v>
+      </c>
+      <c r="L178" t="n">
+        <v>10087</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5453,6 +7569,18 @@
       <c r="H179" t="n">
         <v>-0.1601246</v>
       </c>
+      <c r="I179" t="n">
+        <v>198016</v>
+      </c>
+      <c r="J179" t="n">
+        <v>8740</v>
+      </c>
+      <c r="K179" t="n">
+        <v>209117</v>
+      </c>
+      <c r="L179" t="n">
+        <v>14815</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5481,6 +7609,18 @@
       <c r="H180" t="n">
         <v>-2.9915726</v>
       </c>
+      <c r="I180" t="n">
+        <v>336316</v>
+      </c>
+      <c r="J180" t="n">
+        <v>12893</v>
+      </c>
+      <c r="K180" t="n">
+        <v>342673</v>
+      </c>
+      <c r="L180" t="n">
+        <v>12187</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5509,6 +7649,18 @@
       <c r="H181" t="n">
         <v>-0.4200255</v>
       </c>
+      <c r="I181" t="n">
+        <v>54368</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2323</v>
+      </c>
+      <c r="K181" t="n">
+        <v>82541</v>
+      </c>
+      <c r="L181" t="n">
+        <v>5527</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5537,6 +7689,18 @@
       <c r="H182" t="n">
         <v>0.5227244999999999</v>
       </c>
+      <c r="I182" t="n">
+        <v>97618</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3866</v>
+      </c>
+      <c r="K182" t="n">
+        <v>91533</v>
+      </c>
+      <c r="L182" t="n">
+        <v>8202</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5565,6 +7729,18 @@
       <c r="H183" t="n">
         <v>0.6714479999999999</v>
       </c>
+      <c r="I183" t="n">
+        <v>121539</v>
+      </c>
+      <c r="J183" t="n">
+        <v>5206</v>
+      </c>
+      <c r="K183" t="n">
+        <v>109318</v>
+      </c>
+      <c r="L183" t="n">
+        <v>7867</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5593,6 +7769,18 @@
       <c r="H184" t="n">
         <v>-2.3369784</v>
       </c>
+      <c r="I184" t="n">
+        <v>205906</v>
+      </c>
+      <c r="J184" t="n">
+        <v>7802</v>
+      </c>
+      <c r="K184" t="n">
+        <v>202788</v>
+      </c>
+      <c r="L184" t="n">
+        <v>15281</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5621,6 +7809,18 @@
       <c r="H185" t="n">
         <v>-2.2426305</v>
       </c>
+      <c r="I185" t="n">
+        <v>316328</v>
+      </c>
+      <c r="J185" t="n">
+        <v>12285</v>
+      </c>
+      <c r="K185" t="n">
+        <v>326545</v>
+      </c>
+      <c r="L185" t="n">
+        <v>10867</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5649,6 +7849,18 @@
       <c r="H186" t="n">
         <v>-1.198674</v>
       </c>
+      <c r="I186" t="n">
+        <v>226980</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9273</v>
+      </c>
+      <c r="K186" t="n">
+        <v>264981</v>
+      </c>
+      <c r="L186" t="n">
+        <v>14047</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5677,6 +7889,18 @@
       <c r="H187" t="n">
         <v>0.5417860999999999</v>
       </c>
+      <c r="I187" t="n">
+        <v>110424</v>
+      </c>
+      <c r="J187" t="n">
+        <v>4362</v>
+      </c>
+      <c r="K187" t="n">
+        <v>86715</v>
+      </c>
+      <c r="L187" t="n">
+        <v>8871</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5705,6 +7929,14 @@
       <c r="H188" t="n">
         <v>-0.8432685</v>
       </c>
+      <c r="I188" t="n">
+        <v>203887</v>
+      </c>
+      <c r="J188" t="n">
+        <v>8271</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5733,6 +7965,18 @@
       <c r="H189" t="n">
         <v>-2.5228191</v>
       </c>
+      <c r="I189" t="n">
+        <v>167454</v>
+      </c>
+      <c r="J189" t="n">
+        <v>7184</v>
+      </c>
+      <c r="K189" t="n">
+        <v>177948</v>
+      </c>
+      <c r="L189" t="n">
+        <v>12997</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5761,6 +8005,18 @@
       <c r="H190" t="n">
         <v>-3.381646</v>
       </c>
+      <c r="I190" t="n">
+        <v>247840</v>
+      </c>
+      <c r="J190" t="n">
+        <v>9417</v>
+      </c>
+      <c r="K190" t="n">
+        <v>248485</v>
+      </c>
+      <c r="L190" t="n">
+        <v>13475</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5789,6 +8045,18 @@
       <c r="H191" t="n">
         <v>-0.2108084</v>
       </c>
+      <c r="I191" t="n">
+        <v>42853</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2177</v>
+      </c>
+      <c r="K191" t="n">
+        <v>41100</v>
+      </c>
+      <c r="L191" t="n">
+        <v>5209</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5817,6 +8085,18 @@
       <c r="H192" t="n">
         <v>-3.4746216</v>
       </c>
+      <c r="I192" t="n">
+        <v>272556</v>
+      </c>
+      <c r="J192" t="n">
+        <v>9857</v>
+      </c>
+      <c r="K192" t="n">
+        <v>294746</v>
+      </c>
+      <c r="L192" t="n">
+        <v>17619</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5845,6 +8125,18 @@
       <c r="H193" t="n">
         <v>1.0721487</v>
       </c>
+      <c r="I193" t="n">
+        <v>198381</v>
+      </c>
+      <c r="J193" t="n">
+        <v>8107</v>
+      </c>
+      <c r="K193" t="n">
+        <v>179976</v>
+      </c>
+      <c r="L193" t="n">
+        <v>13976</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5873,6 +8165,18 @@
       <c r="H194" t="n">
         <v>-0.1154553</v>
       </c>
+      <c r="I194" t="n">
+        <v>75132</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3087</v>
+      </c>
+      <c r="K194" t="n">
+        <v>99759</v>
+      </c>
+      <c r="L194" t="n">
+        <v>13994</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5901,6 +8205,18 @@
       <c r="H195" t="n">
         <v>-1.234956</v>
       </c>
+      <c r="I195" t="n">
+        <v>403453</v>
+      </c>
+      <c r="J195" t="n">
+        <v>15528</v>
+      </c>
+      <c r="K195" t="n">
+        <v>429147</v>
+      </c>
+      <c r="L195" t="n">
+        <v>15702</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5929,6 +8245,18 @@
       <c r="H196" t="n">
         <v>-0.7594171</v>
       </c>
+      <c r="I196" t="n">
+        <v>87947</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3850</v>
+      </c>
+      <c r="K196" t="n">
+        <v>111076</v>
+      </c>
+      <c r="L196" t="n">
+        <v>6942</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5957,6 +8285,18 @@
       <c r="H197" t="n">
         <v>-0.3264952</v>
       </c>
+      <c r="I197" t="n">
+        <v>41691</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1971</v>
+      </c>
+      <c r="K197" t="n">
+        <v>50029</v>
+      </c>
+      <c r="L197" t="n">
+        <v>5845</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5985,6 +8325,18 @@
       <c r="H198" t="n">
         <v>-2.7163417</v>
       </c>
+      <c r="I198" t="n">
+        <v>201229</v>
+      </c>
+      <c r="J198" t="n">
+        <v>8187</v>
+      </c>
+      <c r="K198" t="n">
+        <v>233619</v>
+      </c>
+      <c r="L198" t="n">
+        <v>13543</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6013,6 +8365,18 @@
       <c r="H199" t="n">
         <v>-3.3168039</v>
       </c>
+      <c r="I199" t="n">
+        <v>919932</v>
+      </c>
+      <c r="J199" t="n">
+        <v>34933</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1000565</v>
+      </c>
+      <c r="L199" t="n">
+        <v>41697</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6041,6 +8405,18 @@
       <c r="H200" t="n">
         <v>-7.0194035</v>
       </c>
+      <c r="I200" t="n">
+        <v>1089960</v>
+      </c>
+      <c r="J200" t="n">
+        <v>51351</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1110059</v>
+      </c>
+      <c r="L200" t="n">
+        <v>108424</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6069,6 +8445,18 @@
       <c r="H201" t="n">
         <v>-3.7346728</v>
       </c>
+      <c r="I201" t="n">
+        <v>280131</v>
+      </c>
+      <c r="J201" t="n">
+        <v>10553</v>
+      </c>
+      <c r="K201" t="n">
+        <v>278478</v>
+      </c>
+      <c r="L201" t="n">
+        <v>15270</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6097,6 +8485,14 @@
       <c r="H202" t="n">
         <v>-1.6327718</v>
       </c>
+      <c r="I202" t="n">
+        <v>118683</v>
+      </c>
+      <c r="J202" t="n">
+        <v>4573</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6125,6 +8521,18 @@
       <c r="H203" t="n">
         <v>-0.952234</v>
       </c>
+      <c r="I203" t="n">
+        <v>222147</v>
+      </c>
+      <c r="J203" t="n">
+        <v>9249</v>
+      </c>
+      <c r="K203" t="n">
+        <v>238855</v>
+      </c>
+      <c r="L203" t="n">
+        <v>15021</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6153,6 +8561,18 @@
       <c r="H204" t="n">
         <v>-1.61778</v>
       </c>
+      <c r="I204" t="n">
+        <v>458503</v>
+      </c>
+      <c r="J204" t="n">
+        <v>17766</v>
+      </c>
+      <c r="K204" t="n">
+        <v>462978</v>
+      </c>
+      <c r="L204" t="n">
+        <v>15042</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6181,6 +8601,18 @@
       <c r="H205" t="n">
         <v>-2.2273002</v>
       </c>
+      <c r="I205" t="n">
+        <v>249044</v>
+      </c>
+      <c r="J205" t="n">
+        <v>9302</v>
+      </c>
+      <c r="K205" t="n">
+        <v>274834</v>
+      </c>
+      <c r="L205" t="n">
+        <v>10867</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6209,6 +8641,18 @@
       <c r="H206" t="n">
         <v>0.0293731</v>
       </c>
+      <c r="I206" t="n">
+        <v>96646</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3988</v>
+      </c>
+      <c r="K206" t="n">
+        <v>43552</v>
+      </c>
+      <c r="L206" t="n">
+        <v>4586</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6237,6 +8681,18 @@
       <c r="H207" t="n">
         <v>-2.997664</v>
       </c>
+      <c r="I207" t="n">
+        <v>198294</v>
+      </c>
+      <c r="J207" t="n">
+        <v>7476</v>
+      </c>
+      <c r="K207" t="n">
+        <v>191653</v>
+      </c>
+      <c r="L207" t="n">
+        <v>7835</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6265,6 +8721,18 @@
       <c r="H208" t="n">
         <v>-4.75946</v>
       </c>
+      <c r="I208" t="n">
+        <v>689444</v>
+      </c>
+      <c r="J208" t="n">
+        <v>25304</v>
+      </c>
+      <c r="K208" t="n">
+        <v>724345</v>
+      </c>
+      <c r="L208" t="n">
+        <v>23768</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6293,6 +8761,18 @@
       <c r="H209" t="n">
         <v>-3.8918711</v>
       </c>
+      <c r="I209" t="n">
+        <v>310450</v>
+      </c>
+      <c r="J209" t="n">
+        <v>11830</v>
+      </c>
+      <c r="K209" t="n">
+        <v>366098</v>
+      </c>
+      <c r="L209" t="n">
+        <v>25943</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6321,6 +8801,18 @@
       <c r="H210" t="n">
         <v>-1.4403714</v>
       </c>
+      <c r="I210" t="n">
+        <v>242659</v>
+      </c>
+      <c r="J210" t="n">
+        <v>9586</v>
+      </c>
+      <c r="K210" t="n">
+        <v>285477</v>
+      </c>
+      <c r="L210" t="n">
+        <v>15660</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6349,6 +8841,18 @@
       <c r="H211" t="n">
         <v>-0.08150660000000001</v>
       </c>
+      <c r="I211" t="n">
+        <v>310659</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12855</v>
+      </c>
+      <c r="K211" t="n">
+        <v>327433</v>
+      </c>
+      <c r="L211" t="n">
+        <v>15633</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6377,6 +8881,18 @@
       <c r="H212" t="n">
         <v>-0.2149955</v>
       </c>
+      <c r="I212" t="n">
+        <v>73138</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3333</v>
+      </c>
+      <c r="K212" t="n">
+        <v>91047</v>
+      </c>
+      <c r="L212" t="n">
+        <v>8229</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6405,6 +8921,18 @@
       <c r="H213" t="n">
         <v>-0.4489081999999999</v>
       </c>
+      <c r="I213" t="n">
+        <v>220318</v>
+      </c>
+      <c r="J213" t="n">
+        <v>9219</v>
+      </c>
+      <c r="K213" t="n">
+        <v>229139</v>
+      </c>
+      <c r="L213" t="n">
+        <v>14375</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6433,6 +8961,18 @@
       <c r="H214" t="n">
         <v>-3.9613144</v>
       </c>
+      <c r="I214" t="n">
+        <v>635198</v>
+      </c>
+      <c r="J214" t="n">
+        <v>23212</v>
+      </c>
+      <c r="K214" t="n">
+        <v>670809</v>
+      </c>
+      <c r="L214" t="n">
+        <v>22295</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6461,6 +9001,14 @@
       <c r="H215" t="n">
         <v>-0.5596582</v>
       </c>
+      <c r="I215" t="n">
+        <v>282391</v>
+      </c>
+      <c r="J215" t="n">
+        <v>11759</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6489,6 +9037,18 @@
       <c r="H216" t="n">
         <v>1.0469133</v>
       </c>
+      <c r="I216" t="n">
+        <v>250905</v>
+      </c>
+      <c r="J216" t="n">
+        <v>10348</v>
+      </c>
+      <c r="K216" t="n">
+        <v>280462</v>
+      </c>
+      <c r="L216" t="n">
+        <v>21791</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6517,6 +9077,18 @@
       <c r="H217" t="n">
         <v>-2.7781091</v>
       </c>
+      <c r="I217" t="n">
+        <v>183381</v>
+      </c>
+      <c r="J217" t="n">
+        <v>7598</v>
+      </c>
+      <c r="K217" t="n">
+        <v>193812</v>
+      </c>
+      <c r="L217" t="n">
+        <v>11049</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6545,6 +9117,18 @@
       <c r="H218" t="n">
         <v>-1.4858436</v>
       </c>
+      <c r="I218" t="n">
+        <v>459053</v>
+      </c>
+      <c r="J218" t="n">
+        <v>17600</v>
+      </c>
+      <c r="K218" t="n">
+        <v>476281</v>
+      </c>
+      <c r="L218" t="n">
+        <v>20130</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -6573,6 +9157,14 @@
       <c r="H219" t="n">
         <v>-1.6076567</v>
       </c>
+      <c r="I219" t="n">
+        <v>172350</v>
+      </c>
+      <c r="J219" t="n">
+        <v>6972</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -6601,6 +9193,18 @@
       <c r="H220" t="n">
         <v>-1.4735321</v>
       </c>
+      <c r="I220" t="n">
+        <v>203256</v>
+      </c>
+      <c r="J220" t="n">
+        <v>7496</v>
+      </c>
+      <c r="K220" t="n">
+        <v>246822</v>
+      </c>
+      <c r="L220" t="n">
+        <v>14199</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6629,6 +9233,18 @@
       <c r="H221" t="n">
         <v>-0.8944420999999999</v>
       </c>
+      <c r="I221" t="n">
+        <v>109701</v>
+      </c>
+      <c r="J221" t="n">
+        <v>4650</v>
+      </c>
+      <c r="K221" t="n">
+        <v>136839</v>
+      </c>
+      <c r="L221" t="n">
+        <v>7902</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6657,6 +9273,18 @@
       <c r="H222" t="n">
         <v>-2.0784138</v>
       </c>
+      <c r="I222" t="n">
+        <v>498945</v>
+      </c>
+      <c r="J222" t="n">
+        <v>19644</v>
+      </c>
+      <c r="K222" t="n">
+        <v>514094</v>
+      </c>
+      <c r="L222" t="n">
+        <v>26343</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6685,6 +9313,18 @@
       <c r="H223" t="n">
         <v>1.2978802</v>
       </c>
+      <c r="I223" t="n">
+        <v>227225</v>
+      </c>
+      <c r="J223" t="n">
+        <v>9070</v>
+      </c>
+      <c r="K223" t="n">
+        <v>218510</v>
+      </c>
+      <c r="L223" t="n">
+        <v>11167</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6713,6 +9353,18 @@
       <c r="H224" t="n">
         <v>-1.1549892</v>
       </c>
+      <c r="I224" t="n">
+        <v>204704</v>
+      </c>
+      <c r="J224" t="n">
+        <v>8236</v>
+      </c>
+      <c r="K224" t="n">
+        <v>237160</v>
+      </c>
+      <c r="L224" t="n">
+        <v>10447</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6741,6 +9393,18 @@
       <c r="H225" t="n">
         <v>-1.4723491</v>
       </c>
+      <c r="I225" t="n">
+        <v>165416</v>
+      </c>
+      <c r="J225" t="n">
+        <v>6616</v>
+      </c>
+      <c r="K225" t="n">
+        <v>188580</v>
+      </c>
+      <c r="L225" t="n">
+        <v>7643</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6769,6 +9433,18 @@
       <c r="H226" t="n">
         <v>-1.0966272</v>
       </c>
+      <c r="I226" t="n">
+        <v>163291</v>
+      </c>
+      <c r="J226" t="n">
+        <v>6727</v>
+      </c>
+      <c r="K226" t="n">
+        <v>199520</v>
+      </c>
+      <c r="L226" t="n">
+        <v>11208</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6797,6 +9473,18 @@
       <c r="H227" t="n">
         <v>-2.1113659</v>
       </c>
+      <c r="I227" t="n">
+        <v>332779</v>
+      </c>
+      <c r="J227" t="n">
+        <v>12504</v>
+      </c>
+      <c r="K227" t="n">
+        <v>340711</v>
+      </c>
+      <c r="L227" t="n">
+        <v>14075</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6825,6 +9513,18 @@
       <c r="H228" t="n">
         <v>-1.2577263</v>
       </c>
+      <c r="I228" t="n">
+        <v>76543</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3429</v>
+      </c>
+      <c r="K228" t="n">
+        <v>57971</v>
+      </c>
+      <c r="L228" t="n">
+        <v>3217</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6853,6 +9553,18 @@
       <c r="H229" t="n">
         <v>-4.918369999999999</v>
       </c>
+      <c r="I229" t="n">
+        <v>365996</v>
+      </c>
+      <c r="J229" t="n">
+        <v>14107</v>
+      </c>
+      <c r="K229" t="n">
+        <v>398064</v>
+      </c>
+      <c r="L229" t="n">
+        <v>23435</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6881,6 +9593,18 @@
       <c r="H230" t="n">
         <v>-2.1639879</v>
       </c>
+      <c r="I230" t="n">
+        <v>376741</v>
+      </c>
+      <c r="J230" t="n">
+        <v>14068</v>
+      </c>
+      <c r="K230" t="n">
+        <v>392808</v>
+      </c>
+      <c r="L230" t="n">
+        <v>19584</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6909,6 +9633,18 @@
       <c r="H231" t="n">
         <v>-3.4283547</v>
       </c>
+      <c r="I231" t="n">
+        <v>724236</v>
+      </c>
+      <c r="J231" t="n">
+        <v>26187</v>
+      </c>
+      <c r="K231" t="n">
+        <v>779303</v>
+      </c>
+      <c r="L231" t="n">
+        <v>25412</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6937,6 +9673,18 @@
       <c r="H232" t="n">
         <v>-0.2407996999999999</v>
       </c>
+      <c r="I232" t="n">
+        <v>152860</v>
+      </c>
+      <c r="J232" t="n">
+        <v>6494</v>
+      </c>
+      <c r="K232" t="n">
+        <v>154070</v>
+      </c>
+      <c r="L232" t="n">
+        <v>7182</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6965,6 +9713,18 @@
       <c r="H233" t="n">
         <v>-4.1426565</v>
       </c>
+      <c r="I233" t="n">
+        <v>318697</v>
+      </c>
+      <c r="J233" t="n">
+        <v>12876</v>
+      </c>
+      <c r="K233" t="n">
+        <v>387840</v>
+      </c>
+      <c r="L233" t="n">
+        <v>17467</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6993,6 +9753,18 @@
       <c r="H234" t="n">
         <v>-1.0879769</v>
       </c>
+      <c r="I234" t="n">
+        <v>102606</v>
+      </c>
+      <c r="J234" t="n">
+        <v>4257</v>
+      </c>
+      <c r="K234" t="n">
+        <v>99002</v>
+      </c>
+      <c r="L234" t="n">
+        <v>8449</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7021,6 +9793,18 @@
       <c r="H235" t="n">
         <v>-3.3260904</v>
       </c>
+      <c r="I235" t="n">
+        <v>301010</v>
+      </c>
+      <c r="J235" t="n">
+        <v>11759</v>
+      </c>
+      <c r="K235" t="n">
+        <v>329645</v>
+      </c>
+      <c r="L235" t="n">
+        <v>17823</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7049,6 +9833,18 @@
       <c r="H236" t="n">
         <v>-2.70309</v>
       </c>
+      <c r="I236" t="n">
+        <v>350114</v>
+      </c>
+      <c r="J236" t="n">
+        <v>13278</v>
+      </c>
+      <c r="K236" t="n">
+        <v>367496</v>
+      </c>
+      <c r="L236" t="n">
+        <v>11107</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7077,6 +9873,18 @@
       <c r="H237" t="n">
         <v>-0.9787475</v>
       </c>
+      <c r="I237" t="n">
+        <v>43007</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1991</v>
+      </c>
+      <c r="K237" t="n">
+        <v>83597</v>
+      </c>
+      <c r="L237" t="n">
+        <v>3547</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7105,6 +9913,18 @@
       <c r="H238" t="n">
         <v>0.0507539</v>
       </c>
+      <c r="I238" t="n">
+        <v>87149</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3450</v>
+      </c>
+      <c r="K238" t="n">
+        <v>47906</v>
+      </c>
+      <c r="L238" t="n">
+        <v>4979</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7133,6 +9953,18 @@
       <c r="H239" t="n">
         <v>-1.0775997</v>
       </c>
+      <c r="I239" t="n">
+        <v>412652</v>
+      </c>
+      <c r="J239" t="n">
+        <v>15835</v>
+      </c>
+      <c r="K239" t="n">
+        <v>446032</v>
+      </c>
+      <c r="L239" t="n">
+        <v>17869</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7161,6 +9993,18 @@
       <c r="H240" t="n">
         <v>-1.940936</v>
       </c>
+      <c r="I240" t="n">
+        <v>165636</v>
+      </c>
+      <c r="J240" t="n">
+        <v>6116</v>
+      </c>
+      <c r="K240" t="n">
+        <v>238302</v>
+      </c>
+      <c r="L240" t="n">
+        <v>11587</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7189,6 +10033,18 @@
       <c r="H241" t="n">
         <v>-0.2193665</v>
       </c>
+      <c r="I241" t="n">
+        <v>48455</v>
+      </c>
+      <c r="J241" t="n">
+        <v>2125</v>
+      </c>
+      <c r="K241" t="n">
+        <v>37162</v>
+      </c>
+      <c r="L241" t="n">
+        <v>8828</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7217,6 +10073,18 @@
       <c r="H242" t="n">
         <v>-3.4288692</v>
       </c>
+      <c r="I242" t="n">
+        <v>239743</v>
+      </c>
+      <c r="J242" t="n">
+        <v>9490</v>
+      </c>
+      <c r="K242" t="n">
+        <v>241232</v>
+      </c>
+      <c r="L242" t="n">
+        <v>15306</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7245,6 +10113,14 @@
       <c r="H243" t="n">
         <v>-2.4627718</v>
       </c>
+      <c r="I243" t="n">
+        <v>382762</v>
+      </c>
+      <c r="J243" t="n">
+        <v>15019</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7273,6 +10149,18 @@
       <c r="H244" t="n">
         <v>-0.3035268</v>
       </c>
+      <c r="I244" t="n">
+        <v>22146</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1537</v>
+      </c>
+      <c r="K244" t="n">
+        <v>20346</v>
+      </c>
+      <c r="L244" t="n">
+        <v>3173</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7301,6 +10189,14 @@
       <c r="H245" t="n">
         <v>-2.0118584</v>
       </c>
+      <c r="I245" t="n">
+        <v>404788</v>
+      </c>
+      <c r="J245" t="n">
+        <v>17426</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7329,6 +10225,18 @@
       <c r="H246" t="n">
         <v>-2.1561</v>
       </c>
+      <c r="I246" t="n">
+        <v>343039</v>
+      </c>
+      <c r="J246" t="n">
+        <v>12675</v>
+      </c>
+      <c r="K246" t="n">
+        <v>389070</v>
+      </c>
+      <c r="L246" t="n">
+        <v>15402</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7357,6 +10265,18 @@
       <c r="H247" t="n">
         <v>0.706515</v>
       </c>
+      <c r="I247" t="n">
+        <v>122594</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5362</v>
+      </c>
+      <c r="K247" t="n">
+        <v>95926</v>
+      </c>
+      <c r="L247" t="n">
+        <v>6487</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -7385,6 +10305,18 @@
       <c r="H248" t="n">
         <v>0.4159547</v>
       </c>
+      <c r="I248" t="n">
+        <v>120276</v>
+      </c>
+      <c r="J248" t="n">
+        <v>5188</v>
+      </c>
+      <c r="K248" t="n">
+        <v>133206</v>
+      </c>
+      <c r="L248" t="n">
+        <v>12224</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -7413,6 +10345,18 @@
       <c r="H249" t="n">
         <v>-1.3635009</v>
       </c>
+      <c r="I249" t="n">
+        <v>263089</v>
+      </c>
+      <c r="J249" t="n">
+        <v>10125</v>
+      </c>
+      <c r="K249" t="n">
+        <v>302658</v>
+      </c>
+      <c r="L249" t="n">
+        <v>12642</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -7441,6 +10385,18 @@
       <c r="H250" t="n">
         <v>-1.265032</v>
       </c>
+      <c r="I250" t="n">
+        <v>137106</v>
+      </c>
+      <c r="J250" t="n">
+        <v>5794</v>
+      </c>
+      <c r="K250" t="n">
+        <v>164104</v>
+      </c>
+      <c r="L250" t="n">
+        <v>7327</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -7469,6 +10425,18 @@
       <c r="H251" t="n">
         <v>-0.5405584999999999</v>
       </c>
+      <c r="I251" t="n">
+        <v>18355</v>
+      </c>
+      <c r="J251" t="n">
+        <v>801</v>
+      </c>
+      <c r="K251" t="n">
+        <v>21519</v>
+      </c>
+      <c r="L251" t="n">
+        <v>4368</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -7497,6 +10465,18 @@
       <c r="H252" t="n">
         <v>-1.0209505</v>
       </c>
+      <c r="I252" t="n">
+        <v>196343</v>
+      </c>
+      <c r="J252" t="n">
+        <v>7714</v>
+      </c>
+      <c r="K252" t="n">
+        <v>266650</v>
+      </c>
+      <c r="L252" t="n">
+        <v>26741</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -7525,6 +10505,18 @@
       <c r="H253" t="n">
         <v>-0.7618473</v>
       </c>
+      <c r="I253" t="n">
+        <v>35867</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1609</v>
+      </c>
+      <c r="K253" t="n">
+        <v>33417</v>
+      </c>
+      <c r="L253" t="n">
+        <v>5341</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -7553,6 +10545,18 @@
       <c r="H254" t="n">
         <v>-0.639643</v>
       </c>
+      <c r="I254" t="n">
+        <v>180741</v>
+      </c>
+      <c r="J254" t="n">
+        <v>7904</v>
+      </c>
+      <c r="K254" t="n">
+        <v>197240</v>
+      </c>
+      <c r="L254" t="n">
+        <v>18760</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -7581,6 +10585,14 @@
       <c r="H255" t="n">
         <v>-0.7282461</v>
       </c>
+      <c r="I255" t="n">
+        <v>379217</v>
+      </c>
+      <c r="J255" t="n">
+        <v>15040</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -7609,6 +10621,18 @@
       <c r="H256" t="n">
         <v>-2.2901264</v>
       </c>
+      <c r="I256" t="n">
+        <v>326843</v>
+      </c>
+      <c r="J256" t="n">
+        <v>11969</v>
+      </c>
+      <c r="K256" t="n">
+        <v>330583</v>
+      </c>
+      <c r="L256" t="n">
+        <v>12667</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -7637,6 +10661,18 @@
       <c r="H257" t="n">
         <v>-2.010793</v>
       </c>
+      <c r="I257" t="n">
+        <v>193312</v>
+      </c>
+      <c r="J257" t="n">
+        <v>7008</v>
+      </c>
+      <c r="K257" t="n">
+        <v>224304</v>
+      </c>
+      <c r="L257" t="n">
+        <v>10838</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -7665,6 +10701,18 @@
       <c r="H258" t="n">
         <v>-0.399752</v>
       </c>
+      <c r="I258" t="n">
+        <v>384835</v>
+      </c>
+      <c r="J258" t="n">
+        <v>16205</v>
+      </c>
+      <c r="K258" t="n">
+        <v>401741</v>
+      </c>
+      <c r="L258" t="n">
+        <v>15042</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -7693,6 +10741,14 @@
       <c r="H259" t="n">
         <v>-2.7861388</v>
       </c>
+      <c r="I259" t="n">
+        <v>577544</v>
+      </c>
+      <c r="J259" t="n">
+        <v>22026</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -7721,6 +10777,18 @@
       <c r="H260" t="n">
         <v>-2.9736071</v>
       </c>
+      <c r="I260" t="n">
+        <v>213616</v>
+      </c>
+      <c r="J260" t="n">
+        <v>7788</v>
+      </c>
+      <c r="K260" t="n">
+        <v>235964</v>
+      </c>
+      <c r="L260" t="n">
+        <v>12239</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -7749,6 +10817,18 @@
       <c r="H261" t="n">
         <v>-2.970359</v>
       </c>
+      <c r="I261" t="n">
+        <v>340809</v>
+      </c>
+      <c r="J261" t="n">
+        <v>12345</v>
+      </c>
+      <c r="K261" t="n">
+        <v>362568</v>
+      </c>
+      <c r="L261" t="n">
+        <v>16332</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -7777,6 +10857,18 @@
       <c r="H262" t="n">
         <v>-1.067189</v>
       </c>
+      <c r="I262" t="n">
+        <v>317548</v>
+      </c>
+      <c r="J262" t="n">
+        <v>12279</v>
+      </c>
+      <c r="K262" t="n">
+        <v>314093</v>
+      </c>
+      <c r="L262" t="n">
+        <v>11407</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7805,6 +10897,18 @@
       <c r="H263" t="n">
         <v>0.190898</v>
       </c>
+      <c r="I263" t="n">
+        <v>72424</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3104</v>
+      </c>
+      <c r="K263" t="n">
+        <v>64740</v>
+      </c>
+      <c r="L263" t="n">
+        <v>6282</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7833,6 +10937,18 @@
       <c r="H264" t="n">
         <v>-1.470085</v>
       </c>
+      <c r="I264" t="n">
+        <v>269969</v>
+      </c>
+      <c r="J264" t="n">
+        <v>10734</v>
+      </c>
+      <c r="K264" t="n">
+        <v>311622</v>
+      </c>
+      <c r="L264" t="n">
+        <v>12522</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7861,6 +10977,18 @@
       <c r="H265" t="n">
         <v>-2.7417849</v>
       </c>
+      <c r="I265" t="n">
+        <v>256186</v>
+      </c>
+      <c r="J265" t="n">
+        <v>9395</v>
+      </c>
+      <c r="K265" t="n">
+        <v>340781</v>
+      </c>
+      <c r="L265" t="n">
+        <v>12597</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7889,6 +11017,18 @@
       <c r="H266" t="n">
         <v>-0.5950405999999999</v>
       </c>
+      <c r="I266" t="n">
+        <v>15112</v>
+      </c>
+      <c r="J266" t="n">
+        <v>944</v>
+      </c>
+      <c r="K266" t="n">
+        <v>9476</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7917,6 +11057,18 @@
       <c r="H267" t="n">
         <v>-1.77761</v>
       </c>
+      <c r="I267" t="n">
+        <v>159772</v>
+      </c>
+      <c r="J267" t="n">
+        <v>5847</v>
+      </c>
+      <c r="K267" t="n">
+        <v>173582</v>
+      </c>
+      <c r="L267" t="n">
+        <v>10415</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7945,6 +11097,18 @@
       <c r="H268" t="n">
         <v>-3.1059235</v>
       </c>
+      <c r="I268" t="n">
+        <v>241380</v>
+      </c>
+      <c r="J268" t="n">
+        <v>8896</v>
+      </c>
+      <c r="K268" t="n">
+        <v>255510</v>
+      </c>
+      <c r="L268" t="n">
+        <v>9161</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7973,6 +11137,18 @@
       <c r="H269" t="n">
         <v>-4.6291994</v>
       </c>
+      <c r="I269" t="n">
+        <v>653670</v>
+      </c>
+      <c r="J269" t="n">
+        <v>24704</v>
+      </c>
+      <c r="K269" t="n">
+        <v>743622</v>
+      </c>
+      <c r="L269" t="n">
+        <v>24418</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8001,6 +11177,18 @@
       <c r="H270" t="n">
         <v>-0.6319694</v>
       </c>
+      <c r="I270" t="n">
+        <v>21042</v>
+      </c>
+      <c r="J270" t="n">
+        <v>924</v>
+      </c>
+      <c r="K270" t="n">
+        <v>25002</v>
+      </c>
+      <c r="L270" t="n">
+        <v>4580</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8029,6 +11217,18 @@
       <c r="H271" t="n">
         <v>0.0480241</v>
       </c>
+      <c r="I271" t="n">
+        <v>103030</v>
+      </c>
+      <c r="J271" t="n">
+        <v>4583</v>
+      </c>
+      <c r="K271" t="n">
+        <v>120807</v>
+      </c>
+      <c r="L271" t="n">
+        <v>11698</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8057,6 +11257,18 @@
       <c r="H272" t="n">
         <v>-1.5237491</v>
       </c>
+      <c r="I272" t="n">
+        <v>207022</v>
+      </c>
+      <c r="J272" t="n">
+        <v>8091</v>
+      </c>
+      <c r="K272" t="n">
+        <v>240397</v>
+      </c>
+      <c r="L272" t="n">
+        <v>16312</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8085,6 +11297,18 @@
       <c r="H273" t="n">
         <v>-2.4728487</v>
       </c>
+      <c r="I273" t="n">
+        <v>156233</v>
+      </c>
+      <c r="J273" t="n">
+        <v>6112</v>
+      </c>
+      <c r="K273" t="n">
+        <v>170879</v>
+      </c>
+      <c r="L273" t="n">
+        <v>9518</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8113,6 +11337,18 @@
       <c r="H274" t="n">
         <v>-3.8009332</v>
       </c>
+      <c r="I274" t="n">
+        <v>294112</v>
+      </c>
+      <c r="J274" t="n">
+        <v>11844</v>
+      </c>
+      <c r="K274" t="n">
+        <v>362010</v>
+      </c>
+      <c r="L274" t="n">
+        <v>14658</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8141,6 +11377,18 @@
       <c r="H275" t="n">
         <v>-0.0490706</v>
       </c>
+      <c r="I275" t="n">
+        <v>175175</v>
+      </c>
+      <c r="J275" t="n">
+        <v>7595</v>
+      </c>
+      <c r="K275" t="n">
+        <v>202108</v>
+      </c>
+      <c r="L275" t="n">
+        <v>249175</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -8169,6 +11417,18 @@
       <c r="H276" t="n">
         <v>-0.5440817999999999</v>
       </c>
+      <c r="I276" t="n">
+        <v>186902</v>
+      </c>
+      <c r="J276" t="n">
+        <v>7556</v>
+      </c>
+      <c r="K276" t="n">
+        <v>219039</v>
+      </c>
+      <c r="L276" t="n">
+        <v>12241</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8197,6 +11457,18 @@
       <c r="H277" t="n">
         <v>-2.74009</v>
       </c>
+      <c r="I277" t="n">
+        <v>417333</v>
+      </c>
+      <c r="J277" t="n">
+        <v>15301</v>
+      </c>
+      <c r="K277" t="n">
+        <v>435460</v>
+      </c>
+      <c r="L277" t="n">
+        <v>14153</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8225,6 +11497,18 @@
       <c r="H278" t="n">
         <v>-3.7819661</v>
       </c>
+      <c r="I278" t="n">
+        <v>608007</v>
+      </c>
+      <c r="J278" t="n">
+        <v>22229</v>
+      </c>
+      <c r="K278" t="n">
+        <v>677511</v>
+      </c>
+      <c r="L278" t="n">
+        <v>22060</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8253,6 +11537,18 @@
       <c r="H279" t="n">
         <v>1.2294887</v>
       </c>
+      <c r="I279" t="n">
+        <v>221358</v>
+      </c>
+      <c r="J279" t="n">
+        <v>8873</v>
+      </c>
+      <c r="K279" t="n">
+        <v>237179</v>
+      </c>
+      <c r="L279" t="n">
+        <v>15267</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -8281,6 +11577,18 @@
       <c r="H280" t="n">
         <v>-1.0182433</v>
       </c>
+      <c r="I280" t="n">
+        <v>116040</v>
+      </c>
+      <c r="J280" t="n">
+        <v>4499</v>
+      </c>
+      <c r="K280" t="n">
+        <v>155974</v>
+      </c>
+      <c r="L280" t="n">
+        <v>13213</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -8309,6 +11617,18 @@
       <c r="H281" t="n">
         <v>-1.0961011</v>
       </c>
+      <c r="I281" t="n">
+        <v>59009</v>
+      </c>
+      <c r="J281" t="n">
+        <v>2623</v>
+      </c>
+      <c r="K281" t="n">
+        <v>84475</v>
+      </c>
+      <c r="L281" t="n">
+        <v>9776</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -8337,6 +11657,18 @@
       <c r="H282" t="n">
         <v>-2.6907306</v>
       </c>
+      <c r="I282" t="n">
+        <v>345306</v>
+      </c>
+      <c r="J282" t="n">
+        <v>12786</v>
+      </c>
+      <c r="K282" t="n">
+        <v>372892</v>
+      </c>
+      <c r="L282" t="n">
+        <v>14333</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8365,6 +11697,18 @@
       <c r="H283" t="n">
         <v>-2.7019371</v>
       </c>
+      <c r="I283" t="n">
+        <v>175870</v>
+      </c>
+      <c r="J283" t="n">
+        <v>6884</v>
+      </c>
+      <c r="K283" t="n">
+        <v>192692</v>
+      </c>
+      <c r="L283" t="n">
+        <v>14484</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -8393,6 +11737,18 @@
       <c r="H284" t="n">
         <v>-2.1727483</v>
       </c>
+      <c r="I284" t="n">
+        <v>217206</v>
+      </c>
+      <c r="J284" t="n">
+        <v>8054</v>
+      </c>
+      <c r="K284" t="n">
+        <v>284683</v>
+      </c>
+      <c r="L284" t="n">
+        <v>13889</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -8421,6 +11777,18 @@
       <c r="H285" t="n">
         <v>-1.4418634</v>
       </c>
+      <c r="I285" t="n">
+        <v>454522</v>
+      </c>
+      <c r="J285" t="n">
+        <v>17431</v>
+      </c>
+      <c r="K285" t="n">
+        <v>475799</v>
+      </c>
+      <c r="L285" t="n">
+        <v>19376</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -8449,6 +11817,18 @@
       <c r="H286" t="n">
         <v>-1.4049018</v>
       </c>
+      <c r="I286" t="n">
+        <v>98972</v>
+      </c>
+      <c r="J286" t="n">
+        <v>3899</v>
+      </c>
+      <c r="K286" t="n">
+        <v>115508</v>
+      </c>
+      <c r="L286" t="n">
+        <v>6689</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -8477,6 +11857,18 @@
       <c r="H287" t="n">
         <v>0.7077123</v>
       </c>
+      <c r="I287" t="n">
+        <v>121966</v>
+      </c>
+      <c r="J287" t="n">
+        <v>5344</v>
+      </c>
+      <c r="K287" t="n">
+        <v>91257</v>
+      </c>
+      <c r="L287" t="n">
+        <v>7207</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -8505,6 +11897,18 @@
       <c r="H288" t="n">
         <v>-0.087738</v>
       </c>
+      <c r="I288" t="n">
+        <v>34463</v>
+      </c>
+      <c r="J288" t="n">
+        <v>3373</v>
+      </c>
+      <c r="K288" t="n">
+        <v>34627</v>
+      </c>
+      <c r="L288" t="n">
+        <v>3458</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -8533,6 +11937,18 @@
       <c r="H289" t="n">
         <v>-0.4580861</v>
       </c>
+      <c r="I289" t="n">
+        <v>12088</v>
+      </c>
+      <c r="J289" t="n">
+        <v>833</v>
+      </c>
+      <c r="K289" t="n">
+        <v>13304</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2915</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -8561,6 +11977,18 @@
       <c r="H290" t="n">
         <v>-0.339436</v>
       </c>
+      <c r="I290" t="n">
+        <v>41438</v>
+      </c>
+      <c r="J290" t="n">
+        <v>2103</v>
+      </c>
+      <c r="K290" t="n">
+        <v>65865</v>
+      </c>
+      <c r="L290" t="n">
+        <v>4987</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -8589,6 +12017,18 @@
       <c r="H291" t="n">
         <v>-2.737095</v>
       </c>
+      <c r="I291" t="n">
+        <v>320488</v>
+      </c>
+      <c r="J291" t="n">
+        <v>11962</v>
+      </c>
+      <c r="K291" t="n">
+        <v>357668</v>
+      </c>
+      <c r="L291" t="n">
+        <v>13345</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -8617,6 +12057,18 @@
       <c r="H292" t="n">
         <v>-2.12066</v>
       </c>
+      <c r="I292" t="n">
+        <v>223010</v>
+      </c>
+      <c r="J292" t="n">
+        <v>8509</v>
+      </c>
+      <c r="K292" t="n">
+        <v>246140</v>
+      </c>
+      <c r="L292" t="n">
+        <v>8527</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -8645,6 +12097,14 @@
       <c r="H293" t="n">
         <v>-1.9728995</v>
       </c>
+      <c r="I293" t="n">
+        <v>256572</v>
+      </c>
+      <c r="J293" t="n">
+        <v>10529</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -8673,6 +12133,18 @@
       <c r="H294" t="n">
         <v>-0.196612</v>
       </c>
+      <c r="I294" t="n">
+        <v>65198</v>
+      </c>
+      <c r="J294" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K294" t="n">
+        <v>78564</v>
+      </c>
+      <c r="L294" t="n">
+        <v>4747</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -8701,6 +12173,18 @@
       <c r="H295" t="n">
         <v>-3.9369029</v>
       </c>
+      <c r="I295" t="n">
+        <v>666509</v>
+      </c>
+      <c r="J295" t="n">
+        <v>24127</v>
+      </c>
+      <c r="K295" t="n">
+        <v>721697</v>
+      </c>
+      <c r="L295" t="n">
+        <v>23202</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -8729,6 +12213,18 @@
       <c r="H296" t="n">
         <v>-2.1575332</v>
       </c>
+      <c r="I296" t="n">
+        <v>315794</v>
+      </c>
+      <c r="J296" t="n">
+        <v>11620</v>
+      </c>
+      <c r="K296" t="n">
+        <v>325645</v>
+      </c>
+      <c r="L296" t="n">
+        <v>10867</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -8757,6 +12253,18 @@
       <c r="H297" t="n">
         <v>-1.3289821</v>
       </c>
+      <c r="I297" t="n">
+        <v>406343</v>
+      </c>
+      <c r="J297" t="n">
+        <v>15804</v>
+      </c>
+      <c r="K297" t="n">
+        <v>405955</v>
+      </c>
+      <c r="L297" t="n">
+        <v>14562</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -8785,6 +12293,18 @@
       <c r="H298" t="n">
         <v>-2.1827408</v>
       </c>
+      <c r="I298" t="n">
+        <v>248849</v>
+      </c>
+      <c r="J298" t="n">
+        <v>9048</v>
+      </c>
+      <c r="K298" t="n">
+        <v>266043</v>
+      </c>
+      <c r="L298" t="n">
+        <v>8587</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -8813,6 +12333,18 @@
       <c r="H299" t="n">
         <v>-1.708298</v>
       </c>
+      <c r="I299" t="n">
+        <v>145699</v>
+      </c>
+      <c r="J299" t="n">
+        <v>5611</v>
+      </c>
+      <c r="K299" t="n">
+        <v>185145</v>
+      </c>
+      <c r="L299" t="n">
+        <v>11375</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -8841,6 +12373,18 @@
       <c r="H300" t="n">
         <v>-2.217758</v>
       </c>
+      <c r="I300" t="n">
+        <v>150720</v>
+      </c>
+      <c r="J300" t="n">
+        <v>6180</v>
+      </c>
+      <c r="K300" t="n">
+        <v>189889</v>
+      </c>
+      <c r="L300" t="n">
+        <v>7567</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -8869,6 +12413,18 @@
       <c r="H301" t="n">
         <v>-1.383801</v>
       </c>
+      <c r="I301" t="n">
+        <v>445389</v>
+      </c>
+      <c r="J301" t="n">
+        <v>17392</v>
+      </c>
+      <c r="K301" t="n">
+        <v>482535</v>
+      </c>
+      <c r="L301" t="n">
+        <v>16002</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -8897,6 +12453,18 @@
       <c r="H302" t="n">
         <v>-0.6689303000000001</v>
       </c>
+      <c r="I302" t="n">
+        <v>26144</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1326</v>
+      </c>
+      <c r="K302" t="n">
+        <v>23673</v>
+      </c>
+      <c r="L302" t="n">
+        <v>5206</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8925,6 +12493,18 @@
       <c r="H303" t="n">
         <v>-0.193961</v>
       </c>
+      <c r="I303" t="n">
+        <v>45486</v>
+      </c>
+      <c r="J303" t="n">
+        <v>2759</v>
+      </c>
+      <c r="K303" t="n">
+        <v>31190</v>
+      </c>
+      <c r="L303" t="n">
+        <v>5696</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8953,6 +12533,18 @@
       <c r="H304" t="n">
         <v>0.8224796</v>
       </c>
+      <c r="I304" t="n">
+        <v>120063</v>
+      </c>
+      <c r="J304" t="n">
+        <v>5245</v>
+      </c>
+      <c r="K304" t="n">
+        <v>106134</v>
+      </c>
+      <c r="L304" t="n">
+        <v>9959</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8981,6 +12573,18 @@
       <c r="H305" t="n">
         <v>-3.943645999999999</v>
       </c>
+      <c r="I305" t="n">
+        <v>276823</v>
+      </c>
+      <c r="J305" t="n">
+        <v>10582</v>
+      </c>
+      <c r="K305" t="n">
+        <v>283932</v>
+      </c>
+      <c r="L305" t="n">
+        <v>12275</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -9009,6 +12613,18 @@
       <c r="H306" t="n">
         <v>-1.7798258</v>
       </c>
+      <c r="I306" t="n">
+        <v>106498</v>
+      </c>
+      <c r="J306" t="n">
+        <v>4329</v>
+      </c>
+      <c r="K306" t="n">
+        <v>149887</v>
+      </c>
+      <c r="L306" t="n">
+        <v>5227</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -9037,6 +12653,18 @@
       <c r="H307" t="n">
         <v>-2.0809891</v>
       </c>
+      <c r="I307" t="n">
+        <v>327709</v>
+      </c>
+      <c r="J307" t="n">
+        <v>12240</v>
+      </c>
+      <c r="K307" t="n">
+        <v>339984</v>
+      </c>
+      <c r="L307" t="n">
+        <v>14175</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -9065,6 +12693,18 @@
       <c r="H308" t="n">
         <v>-1.691032</v>
       </c>
+      <c r="I308" t="n">
+        <v>185262</v>
+      </c>
+      <c r="J308" t="n">
+        <v>7093</v>
+      </c>
+      <c r="K308" t="n">
+        <v>283990</v>
+      </c>
+      <c r="L308" t="n">
+        <v>10507</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -9093,6 +12733,18 @@
       <c r="H309" t="n">
         <v>-0.0472327</v>
       </c>
+      <c r="I309" t="n">
+        <v>56171</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2277</v>
+      </c>
+      <c r="K309" t="n">
+        <v>71411</v>
+      </c>
+      <c r="L309" t="n">
+        <v>7997</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -9121,6 +12773,18 @@
       <c r="H310" t="n">
         <v>-3.5932822</v>
       </c>
+      <c r="I310" t="n">
+        <v>277029</v>
+      </c>
+      <c r="J310" t="n">
+        <v>11094</v>
+      </c>
+      <c r="K310" t="n">
+        <v>347418</v>
+      </c>
+      <c r="L310" t="n">
+        <v>20337</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -9149,6 +12813,14 @@
       <c r="H311" t="n">
         <v>-2.4868586</v>
       </c>
+      <c r="I311" t="n">
+        <v>242809</v>
+      </c>
+      <c r="J311" t="n">
+        <v>9207</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -9177,6 +12849,18 @@
       <c r="H312" t="n">
         <v>1.1145037</v>
       </c>
+      <c r="I312" t="n">
+        <v>168831</v>
+      </c>
+      <c r="J312" t="n">
+        <v>6771</v>
+      </c>
+      <c r="K312" t="n">
+        <v>144139</v>
+      </c>
+      <c r="L312" t="n">
+        <v>9210</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -9205,6 +12889,18 @@
       <c r="H313" t="n">
         <v>-1.5518375</v>
       </c>
+      <c r="I313" t="n">
+        <v>91078</v>
+      </c>
+      <c r="J313" t="n">
+        <v>3725</v>
+      </c>
+      <c r="K313" t="n">
+        <v>114990</v>
+      </c>
+      <c r="L313" t="n">
+        <v>11155</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -9233,6 +12929,18 @@
       <c r="H314" t="n">
         <v>-2.15796</v>
       </c>
+      <c r="I314" t="n">
+        <v>170139</v>
+      </c>
+      <c r="J314" t="n">
+        <v>6495</v>
+      </c>
+      <c r="K314" t="n">
+        <v>228889</v>
+      </c>
+      <c r="L314" t="n">
+        <v>11364</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -9261,6 +12969,18 @@
       <c r="H315" t="n">
         <v>1.3484663</v>
       </c>
+      <c r="I315" t="n">
+        <v>160539</v>
+      </c>
+      <c r="J315" t="n">
+        <v>6445</v>
+      </c>
+      <c r="K315" t="n">
+        <v>149913</v>
+      </c>
+      <c r="L315" t="n">
+        <v>13438</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -9289,6 +13009,18 @@
       <c r="H316" t="n">
         <v>-0.4618996</v>
       </c>
+      <c r="I316" t="n">
+        <v>27558</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1396</v>
+      </c>
+      <c r="K316" t="n">
+        <v>33046</v>
+      </c>
+      <c r="L316" t="n">
+        <v>9657</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -9317,6 +13049,18 @@
       <c r="H317" t="n">
         <v>0.3529197</v>
       </c>
+      <c r="I317" t="n">
+        <v>99447</v>
+      </c>
+      <c r="J317" t="n">
+        <v>4223</v>
+      </c>
+      <c r="K317" t="n">
+        <v>74703</v>
+      </c>
+      <c r="L317" t="n">
+        <v>8975</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -9345,6 +13089,18 @@
       <c r="H318" t="n">
         <v>0.350279</v>
       </c>
+      <c r="I318" t="n">
+        <v>84013</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3279</v>
+      </c>
+      <c r="K318" t="n">
+        <v>80341</v>
+      </c>
+      <c r="L318" t="n">
+        <v>10132</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -9373,6 +13129,18 @@
       <c r="H319" t="n">
         <v>-3.525315</v>
       </c>
+      <c r="I319" t="n">
+        <v>283194</v>
+      </c>
+      <c r="J319" t="n">
+        <v>11827</v>
+      </c>
+      <c r="K319" t="n">
+        <v>346228</v>
+      </c>
+      <c r="L319" t="n">
+        <v>16867</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -9401,6 +13169,18 @@
       <c r="H320" t="n">
         <v>-3.0446015</v>
       </c>
+      <c r="I320" t="n">
+        <v>208385</v>
+      </c>
+      <c r="J320" t="n">
+        <v>7828</v>
+      </c>
+      <c r="K320" t="n">
+        <v>207072</v>
+      </c>
+      <c r="L320" t="n">
+        <v>12118</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -9429,6 +13209,18 @@
       <c r="H321" t="n">
         <v>-4.2654808</v>
       </c>
+      <c r="I321" t="n">
+        <v>338742</v>
+      </c>
+      <c r="J321" t="n">
+        <v>13528</v>
+      </c>
+      <c r="K321" t="n">
+        <v>402303</v>
+      </c>
+      <c r="L321" t="n">
+        <v>23473</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -9457,6 +13249,18 @@
       <c r="H322" t="n">
         <v>-0.0347399</v>
       </c>
+      <c r="I322" t="n">
+        <v>96510</v>
+      </c>
+      <c r="J322" t="n">
+        <v>4024</v>
+      </c>
+      <c r="K322" t="n">
+        <v>37372</v>
+      </c>
+      <c r="L322" t="n">
+        <v>3633</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -9485,6 +13289,18 @@
       <c r="H323" t="n">
         <v>-2.3517259</v>
       </c>
+      <c r="I323" t="n">
+        <v>303167</v>
+      </c>
+      <c r="J323" t="n">
+        <v>11498</v>
+      </c>
+      <c r="K323" t="n">
+        <v>339870</v>
+      </c>
+      <c r="L323" t="n">
+        <v>14442</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -9513,6 +13329,18 @@
       <c r="H324" t="n">
         <v>0.263695</v>
       </c>
+      <c r="I324" t="n">
+        <v>93177</v>
+      </c>
+      <c r="J324" t="n">
+        <v>3697</v>
+      </c>
+      <c r="K324" t="n">
+        <v>87198</v>
+      </c>
+      <c r="L324" t="n">
+        <v>7387</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -9541,6 +13369,14 @@
       <c r="H325" t="n">
         <v>-3.435973</v>
       </c>
+      <c r="I325" t="n">
+        <v>559937</v>
+      </c>
+      <c r="J325" t="n">
+        <v>20503</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -9569,6 +13405,18 @@
       <c r="H326" t="n">
         <v>0.2391245</v>
       </c>
+      <c r="I326" t="n">
+        <v>111658</v>
+      </c>
+      <c r="J326" t="n">
+        <v>4686</v>
+      </c>
+      <c r="K326" t="n">
+        <v>100131</v>
+      </c>
+      <c r="L326" t="n">
+        <v>10424</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -9597,6 +13445,18 @@
       <c r="H327" t="n">
         <v>-3.4848167</v>
       </c>
+      <c r="I327" t="n">
+        <v>250363</v>
+      </c>
+      <c r="J327" t="n">
+        <v>9642</v>
+      </c>
+      <c r="K327" t="n">
+        <v>258192</v>
+      </c>
+      <c r="L327" t="n">
+        <v>12551</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -9625,6 +13485,18 @@
       <c r="H328" t="n">
         <v>-1.4829103</v>
       </c>
+      <c r="I328" t="n">
+        <v>97948</v>
+      </c>
+      <c r="J328" t="n">
+        <v>4386</v>
+      </c>
+      <c r="K328" t="n">
+        <v>116434</v>
+      </c>
+      <c r="L328" t="n">
+        <v>12218</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -9653,6 +13525,18 @@
       <c r="H329" t="n">
         <v>-1.505924</v>
       </c>
+      <c r="I329" t="n">
+        <v>297758</v>
+      </c>
+      <c r="J329" t="n">
+        <v>11725</v>
+      </c>
+      <c r="K329" t="n">
+        <v>313778</v>
+      </c>
+      <c r="L329" t="n">
+        <v>11502</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -9681,6 +13565,18 @@
       <c r="H330" t="n">
         <v>-1.982919</v>
       </c>
+      <c r="I330" t="n">
+        <v>201925</v>
+      </c>
+      <c r="J330" t="n">
+        <v>7488</v>
+      </c>
+      <c r="K330" t="n">
+        <v>230506</v>
+      </c>
+      <c r="L330" t="n">
+        <v>10087</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -9709,6 +13605,18 @@
       <c r="H331" t="n">
         <v>-0.0173754</v>
       </c>
+      <c r="I331" t="n">
+        <v>54114</v>
+      </c>
+      <c r="J331" t="n">
+        <v>3456</v>
+      </c>
+      <c r="K331" t="n">
+        <v>47249</v>
+      </c>
+      <c r="L331" t="n">
+        <v>5642</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -9737,6 +13645,18 @@
       <c r="H332" t="n">
         <v>-0.1891356</v>
       </c>
+      <c r="I332" t="n">
+        <v>28477</v>
+      </c>
+      <c r="J332" t="n">
+        <v>2311</v>
+      </c>
+      <c r="K332" t="n">
+        <v>27178</v>
+      </c>
+      <c r="L332" t="n">
+        <v>4669</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -9765,6 +13685,18 @@
       <c r="H333" t="n">
         <v>-2.6023453</v>
       </c>
+      <c r="I333" t="n">
+        <v>307654</v>
+      </c>
+      <c r="J333" t="n">
+        <v>11400</v>
+      </c>
+      <c r="K333" t="n">
+        <v>324098</v>
+      </c>
+      <c r="L333" t="n">
+        <v>9667</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -9793,6 +13725,18 @@
       <c r="H334" t="n">
         <v>-1.584927</v>
       </c>
+      <c r="I334" t="n">
+        <v>133108</v>
+      </c>
+      <c r="J334" t="n">
+        <v>4816</v>
+      </c>
+      <c r="K334" t="n">
+        <v>172825</v>
+      </c>
+      <c r="L334" t="n">
+        <v>8527</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -9821,6 +13765,18 @@
       <c r="H335" t="n">
         <v>-0.3970199</v>
       </c>
+      <c r="I335" t="n">
+        <v>33151</v>
+      </c>
+      <c r="J335" t="n">
+        <v>1613</v>
+      </c>
+      <c r="K335" t="n">
+        <v>59454</v>
+      </c>
+      <c r="L335" t="n">
+        <v>4867</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -9849,6 +13805,18 @@
       <c r="H336" t="n">
         <v>-0.6764416999999999</v>
       </c>
+      <c r="I336" t="n">
+        <v>51391</v>
+      </c>
+      <c r="J336" t="n">
+        <v>2231</v>
+      </c>
+      <c r="K336" t="n">
+        <v>44023</v>
+      </c>
+      <c r="L336" t="n">
+        <v>8470</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -9877,6 +13845,18 @@
       <c r="H337" t="n">
         <v>0.2306394</v>
       </c>
+      <c r="I337" t="n">
+        <v>115623</v>
+      </c>
+      <c r="J337" t="n">
+        <v>5117</v>
+      </c>
+      <c r="K337" t="n">
+        <v>110644</v>
+      </c>
+      <c r="L337" t="n">
+        <v>11936</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -9905,6 +13885,18 @@
       <c r="H338" t="n">
         <v>-0.6939639999999999</v>
       </c>
+      <c r="I338" t="n">
+        <v>125015</v>
+      </c>
+      <c r="J338" t="n">
+        <v>5349</v>
+      </c>
+      <c r="K338" t="n">
+        <v>138724</v>
+      </c>
+      <c r="L338" t="n">
+        <v>7747</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -9933,6 +13925,18 @@
       <c r="H339" t="n">
         <v>-0.2133693</v>
       </c>
+      <c r="I339" t="n">
+        <v>51092</v>
+      </c>
+      <c r="J339" t="n">
+        <v>2350</v>
+      </c>
+      <c r="K339" t="n">
+        <v>57814</v>
+      </c>
+      <c r="L339" t="n">
+        <v>7376</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -9961,6 +13965,18 @@
       <c r="H340" t="n">
         <v>-1.1444927</v>
       </c>
+      <c r="I340" t="n">
+        <v>56053</v>
+      </c>
+      <c r="J340" t="n">
+        <v>2350</v>
+      </c>
+      <c r="K340" t="n">
+        <v>56691</v>
+      </c>
+      <c r="L340" t="n">
+        <v>6723</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -9989,6 +14005,14 @@
       <c r="H341" t="n">
         <v>-4.0309135</v>
       </c>
+      <c r="I341" t="n">
+        <v>307756</v>
+      </c>
+      <c r="J341" t="n">
+        <v>12988</v>
+      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -10017,6 +14041,18 @@
       <c r="H342" t="n">
         <v>-2.8558128</v>
       </c>
+      <c r="I342" t="n">
+        <v>335947</v>
+      </c>
+      <c r="J342" t="n">
+        <v>12582</v>
+      </c>
+      <c r="K342" t="n">
+        <v>369765</v>
+      </c>
+      <c r="L342" t="n">
+        <v>16121</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -10045,6 +14081,14 @@
       <c r="H343" t="n">
         <v>-0.4531518</v>
       </c>
+      <c r="I343" t="n">
+        <v>258818</v>
+      </c>
+      <c r="J343" t="n">
+        <v>10620</v>
+      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -10073,6 +14117,18 @@
       <c r="H344" t="n">
         <v>-3.5517167</v>
       </c>
+      <c r="I344" t="n">
+        <v>661717</v>
+      </c>
+      <c r="J344" t="n">
+        <v>23904</v>
+      </c>
+      <c r="K344" t="n">
+        <v>687951</v>
+      </c>
+      <c r="L344" t="n">
+        <v>23591</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -10101,6 +14157,18 @@
       <c r="H345" t="n">
         <v>-1.4919143</v>
       </c>
+      <c r="I345" t="n">
+        <v>88760</v>
+      </c>
+      <c r="J345" t="n">
+        <v>4092</v>
+      </c>
+      <c r="K345" t="n">
+        <v>150254</v>
+      </c>
+      <c r="L345" t="n">
+        <v>9739</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -10129,6 +14197,18 @@
       <c r="H346" t="n">
         <v>0.9707800999999999</v>
       </c>
+      <c r="I346" t="n">
+        <v>191872</v>
+      </c>
+      <c r="J346" t="n">
+        <v>7385</v>
+      </c>
+      <c r="K346" t="n">
+        <v>165841</v>
+      </c>
+      <c r="L346" t="n">
+        <v>11662</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -10157,6 +14237,18 @@
       <c r="H347" t="n">
         <v>-0.1356583</v>
       </c>
+      <c r="I347" t="n">
+        <v>29741</v>
+      </c>
+      <c r="J347" t="n">
+        <v>2368</v>
+      </c>
+      <c r="K347" t="n">
+        <v>28308</v>
+      </c>
+      <c r="L347" t="n">
+        <v>3533</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -10185,6 +14277,18 @@
       <c r="H348" t="n">
         <v>-2.6325074</v>
       </c>
+      <c r="I348" t="n">
+        <v>323096</v>
+      </c>
+      <c r="J348" t="n">
+        <v>12112</v>
+      </c>
+      <c r="K348" t="n">
+        <v>343179</v>
+      </c>
+      <c r="L348" t="n">
+        <v>10327</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -10213,6 +14317,18 @@
       <c r="H349" t="n">
         <v>-1.9927105</v>
       </c>
+      <c r="I349" t="n">
+        <v>123162</v>
+      </c>
+      <c r="J349" t="n">
+        <v>5454</v>
+      </c>
+      <c r="K349" t="n">
+        <v>134605</v>
+      </c>
+      <c r="L349" t="n">
+        <v>11273</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -10241,6 +14357,18 @@
       <c r="H350" t="n">
         <v>-1.310142</v>
       </c>
+      <c r="I350" t="n">
+        <v>82993</v>
+      </c>
+      <c r="J350" t="n">
+        <v>3293</v>
+      </c>
+      <c r="K350" t="n">
+        <v>82971</v>
+      </c>
+      <c r="L350" t="n">
+        <v>6232</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -10269,6 +14397,18 @@
       <c r="H351" t="n">
         <v>-0.6242565</v>
       </c>
+      <c r="I351" t="n">
+        <v>15583</v>
+      </c>
+      <c r="J351" t="n">
+        <v>763</v>
+      </c>
+      <c r="K351" t="n">
+        <v>14955</v>
+      </c>
+      <c r="L351" t="n">
+        <v>3673</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -10297,6 +14437,18 @@
       <c r="H352" t="n">
         <v>-3.073754</v>
       </c>
+      <c r="I352" t="n">
+        <v>345840</v>
+      </c>
+      <c r="J352" t="n">
+        <v>12537</v>
+      </c>
+      <c r="K352" t="n">
+        <v>348905</v>
+      </c>
+      <c r="L352" t="n">
+        <v>15131</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -10325,6 +14477,18 @@
       <c r="H353" t="n">
         <v>-0.5600349</v>
       </c>
+      <c r="I353" t="n">
+        <v>21875</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1297</v>
+      </c>
+      <c r="K353" t="n">
+        <v>18795</v>
+      </c>
+      <c r="L353" t="n">
+        <v>2246</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -10353,6 +14517,18 @@
       <c r="H354" t="n">
         <v>-0.833861</v>
       </c>
+      <c r="I354" t="n">
+        <v>41031</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1852</v>
+      </c>
+      <c r="K354" t="n">
+        <v>36138</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3575</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -10381,6 +14557,18 @@
       <c r="H355" t="n">
         <v>-2.1256587</v>
       </c>
+      <c r="I355" t="n">
+        <v>208078</v>
+      </c>
+      <c r="J355" t="n">
+        <v>8010</v>
+      </c>
+      <c r="K355" t="n">
+        <v>270747</v>
+      </c>
+      <c r="L355" t="n">
+        <v>9247</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -10409,6 +14597,18 @@
       <c r="H356" t="n">
         <v>-2.2190523</v>
       </c>
+      <c r="I356" t="n">
+        <v>191425</v>
+      </c>
+      <c r="J356" t="n">
+        <v>7102</v>
+      </c>
+      <c r="K356" t="n">
+        <v>219307</v>
+      </c>
+      <c r="L356" t="n">
+        <v>10207</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -10437,6 +14637,18 @@
       <c r="H357" t="n">
         <v>-0.372882</v>
       </c>
+      <c r="I357" t="n">
+        <v>114928</v>
+      </c>
+      <c r="J357" t="n">
+        <v>4672</v>
+      </c>
+      <c r="K357" t="n">
+        <v>124150</v>
+      </c>
+      <c r="L357" t="n">
+        <v>8682</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -10465,6 +14677,18 @@
       <c r="H358" t="n">
         <v>-2.992494</v>
       </c>
+      <c r="I358" t="n">
+        <v>294406</v>
+      </c>
+      <c r="J358" t="n">
+        <v>11778</v>
+      </c>
+      <c r="K358" t="n">
+        <v>338875</v>
+      </c>
+      <c r="L358" t="n">
+        <v>14227</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -10493,6 +14717,18 @@
       <c r="H359" t="n">
         <v>-2.0330954</v>
       </c>
+      <c r="I359" t="n">
+        <v>176011</v>
+      </c>
+      <c r="J359" t="n">
+        <v>6943</v>
+      </c>
+      <c r="K359" t="n">
+        <v>210714</v>
+      </c>
+      <c r="L359" t="n">
+        <v>12417</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -10521,6 +14757,18 @@
       <c r="H360" t="n">
         <v>-0.8078596</v>
       </c>
+      <c r="I360" t="n">
+        <v>36463</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1950</v>
+      </c>
+      <c r="K360" t="n">
+        <v>32335</v>
+      </c>
+      <c r="L360" t="n">
+        <v>5204</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -10549,6 +14797,18 @@
       <c r="H361" t="n">
         <v>-2.8093014</v>
       </c>
+      <c r="I361" t="n">
+        <v>370794</v>
+      </c>
+      <c r="J361" t="n">
+        <v>13998</v>
+      </c>
+      <c r="K361" t="n">
+        <v>429542</v>
+      </c>
+      <c r="L361" t="n">
+        <v>17985</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -10577,6 +14837,18 @@
       <c r="H362" t="n">
         <v>-2.2537632</v>
       </c>
+      <c r="I362" t="n">
+        <v>187111</v>
+      </c>
+      <c r="J362" t="n">
+        <v>7472</v>
+      </c>
+      <c r="K362" t="n">
+        <v>197788</v>
+      </c>
+      <c r="L362" t="n">
+        <v>15328</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -10604,6 +14876,18 @@
       </c>
       <c r="H363" t="n">
         <v>-1.0739108</v>
+      </c>
+      <c r="I363" t="n">
+        <v>339835</v>
+      </c>
+      <c r="J363" t="n">
+        <v>13575</v>
+      </c>
+      <c r="K363" t="n">
+        <v>334220</v>
+      </c>
+      <c r="L363" t="n">
+        <v>11802</v>
       </c>
     </row>
   </sheetData>
